--- a/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
+++ b/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="848" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="848" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="error messages" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1467">
   <si>
     <t>recordSeq</t>
   </si>
@@ -4152,9 +4152,6 @@
     <t>relational link to study id</t>
   </si>
   <si>
-    <t>studyMeasureId (was recordSeq)</t>
-  </si>
-  <si>
     <t>Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table</t>
   </si>
   <si>
@@ -4432,6 +4429,12 @@
   </si>
   <si>
     <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <t>Just to name a few... Each ENUM will have its own computation and validation algorithm</t>
+  </si>
+  <si>
+    <t>studyMeasureId</t>
   </si>
 </sst>
 </file>
@@ -5002,13 +5005,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -5046,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="9" t="s">
@@ -5068,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="9" t="s">
@@ -5087,10 +5090,10 @@
         <v>1282</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="9" t="s">
@@ -5109,10 +5112,10 @@
         <v>1283</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="9" t="s">
@@ -5178,13 +5181,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5198,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -5207,7 +5210,7 @@
         <v>1330</v>
       </c>
       <c r="H2" s="18" t="str">
-        <f t="shared" ref="H2:H20" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
+        <f t="shared" ref="H2:H19" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
@@ -5222,11 +5225,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -5244,11 +5247,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5257,20 +5260,20 @@
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5279,20 +5282,20 @@
     </row>
     <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5301,20 +5304,20 @@
     </row>
     <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5323,20 +5326,20 @@
     </row>
     <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5352,10 +5355,10 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5370,14 +5373,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5386,20 +5389,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5414,14 +5417,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F12" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5436,14 +5439,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F13" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5458,14 +5461,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F14" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5474,20 +5477,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F15" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5496,20 +5499,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5518,20 +5521,20 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5540,20 +5543,20 @@
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5568,7 +5571,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="18" t="s">
@@ -5587,16 +5590,16 @@
         <v>10</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H20" s="18" t="str">
-        <f t="shared" ref="H19:H20" si="1">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
+        <f t="shared" ref="H20" si="1">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
@@ -5643,13 +5646,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5663,22 +5666,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
       </c>
       <c r="F2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H2" s="18" t="str">
-        <f t="shared" ref="H2:H9" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
+        <f t="shared" ref="H2:H8" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5687,11 +5690,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5706,14 +5709,14 @@
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5722,20 +5725,20 @@
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5751,7 +5754,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="21" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F6" t="s">
         <v>1226</v>
@@ -5769,10 +5772,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
@@ -5791,7 +5794,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="18" t="s">
@@ -5810,16 +5813,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H9" s="18" t="str">
-        <f t="shared" ref="H8:H9" si="1">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
+        <f t="shared" ref="H9" si="1">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
@@ -5837,7 +5840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
@@ -5860,13 +5863,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5880,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -5889,7 +5892,7 @@
         <v>1265</v>
       </c>
       <c r="H2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5900,14 +5903,14 @@
         <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H3" s="18" t="str">
         <f t="shared" ref="H3:H17" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
@@ -5925,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
@@ -5944,10 +5947,10 @@
         <v>1278</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1258</v>
@@ -5965,14 +5968,14 @@
         <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5987,13 +5990,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6008,13 +6011,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6029,13 +6032,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6050,14 +6053,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6073,7 +6076,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F11" t="s">
         <v>1268</v>
@@ -6091,10 +6094,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" t="s">
@@ -6113,10 +6116,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" t="s">
@@ -6135,14 +6138,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6157,14 +6160,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6176,19 +6179,19 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>1458</v>
       </c>
-      <c r="C16" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>1459</v>
-      </c>
       <c r="F16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6203,7 +6206,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="18" t="s">
@@ -6222,16 +6225,16 @@
         <v>10</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H18" s="18" t="str">
-        <f t="shared" ref="H17:H18" si="1">CONCATENATE("  ",A18," ", B18, " ", C18," ", D18," ",E18," COMMENT '",SUBSTITUTE(F18,"'",""),"',")</f>
+        <f t="shared" ref="H18" si="1">CONCATENATE("  ",A18," ", B18, " ", C18," ", D18," ",E18," COMMENT '",SUBSTITUTE(F18,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
@@ -6251,7 +6254,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H11" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,18 +6281,18 @@
         <v>1255</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1372</v>
+        <v>1466</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6298,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -6308,7 +6311,7 @@
       </c>
       <c r="H2" s="18" t="str">
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
-        <v xml:space="preserve">  studyMeasureId (was recordSeq) bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
+        <v xml:space="preserve">  studyMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F3" t="s">
         <v>1371</v>
@@ -6334,7 +6337,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -6343,10 +6346,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6361,14 +6364,14 @@
         <v>1234</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F5" t="s">
-        <v>1244</v>
+        <v>1465</v>
       </c>
       <c r="H5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few… Each ENUM will have its own computation and validation algorithm',</v>
+        <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6379,7 +6382,7 @@
         <v>1236</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F6" t="s">
         <v>1238</v>
@@ -6397,10 +6400,10 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F7" t="s">
         <v>1239</v>
@@ -6418,10 +6421,10 @@
         <v>1241</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F8" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6436,10 +6439,10 @@
         <v>1241</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6454,7 +6457,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="18" t="s">
@@ -6473,13 +6476,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H11" s="18" t="str">
         <f t="shared" ref="H11" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
@@ -6496,7 +6499,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,18 +6526,18 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6543,16 +6546,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
       </c>
       <c r="F2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2" s="18" t="str">
-        <f t="shared" ref="H2:H6" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
+        <f t="shared" ref="H2:H5" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
     </row>
@@ -6567,10 +6570,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6579,19 +6582,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6606,7 +6609,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
@@ -6625,16 +6628,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H6" s="18" t="str">
-        <f t="shared" ref="H5:H6" si="1">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
+        <f t="shared" ref="H6" si="1">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
@@ -6647,8 +6650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6675,13 +6678,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6695,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -6719,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F3" t="s">
         <v>1369</v>
@@ -6734,10 +6737,10 @@
         <v>1365</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="14" t="s">
@@ -6759,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F5" t="s">
         <v>1367</v>
@@ -18673,13 +18676,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -18693,7 +18696,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>1284</v>
@@ -18714,10 +18717,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="11" t="s">
@@ -18736,10 +18739,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="11" t="s">
@@ -18755,13 +18758,13 @@
         <v>1261</v>
       </c>
       <c r="B5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>1460</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>1461</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>1315</v>
@@ -18776,13 +18779,13 @@
         <v>1262</v>
       </c>
       <c r="B6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>1460</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1461</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>1316</v>
@@ -18831,13 +18834,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -18851,7 +18854,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>1284</v>
@@ -18860,7 +18863,7 @@
         <v>1312</v>
       </c>
       <c r="H2" s="18" t="str">
-        <f t="shared" ref="H2:H8" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
+        <f t="shared" ref="H2:H7" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  gratuityLogId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
@@ -18875,7 +18878,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="12" t="s">
@@ -18894,11 +18897,11 @@
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>1320</v>
@@ -18916,10 +18919,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>1318</v>
@@ -18937,10 +18940,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>1319</v>
@@ -18958,7 +18961,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="18" t="s">
@@ -18977,16 +18980,16 @@
         <v>10</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H8" s="18" t="str">
-        <f t="shared" ref="H7:H8" si="1">CONCATENATE("  ",A8," ", B8, " ", C8," ", D8," ",E8," COMMENT '",SUBSTITUTE(F8,"'",""),"',")</f>
+        <f t="shared" ref="H8" si="1">CONCATENATE("  ",A8," ", B8, " ", C8," ", D8," ",E8," COMMENT '",SUBSTITUTE(F8,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
@@ -19029,13 +19032,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -19049,7 +19052,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>1284</v>
@@ -19071,10 +19074,10 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -19095,7 +19098,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F4" t="s">
         <v>1321</v>
@@ -19113,10 +19116,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" t="s">
@@ -19138,7 +19141,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
@@ -19160,11 +19163,11 @@
         <v>2</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19173,7 +19176,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -19182,11 +19185,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19204,11 +19207,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19223,10 +19226,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F10" t="s">
         <v>1324</v>
@@ -19244,10 +19247,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F11" t="s">
         <v>1325</v>
@@ -19265,10 +19268,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F12" t="s">
         <v>1326</v>
@@ -19286,10 +19289,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F13" t="s">
         <v>1327</v>
@@ -19307,10 +19310,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F14" t="s">
         <v>1328</v>
@@ -19379,13 +19382,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -19399,7 +19402,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1284</v>
@@ -19423,10 +19426,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>1413</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>1414</v>
       </c>
       <c r="F3" t="s">
         <v>1337</v>
@@ -19447,10 +19450,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>1413</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>1414</v>
       </c>
       <c r="F4" t="s">
         <v>1331</v>
@@ -19471,13 +19474,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>1413</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>1414</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19486,7 +19489,7 @@
     </row>
     <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>16</v>
@@ -19495,13 +19498,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>1413</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>1414</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19510,20 +19513,20 @@
     </row>
     <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19532,20 +19535,20 @@
     </row>
     <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19554,20 +19557,20 @@
     </row>
     <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19576,20 +19579,20 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19605,10 +19608,10 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19623,14 +19626,14 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19639,20 +19642,20 @@
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19667,14 +19670,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19689,14 +19692,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19711,14 +19714,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19727,20 +19730,20 @@
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19749,20 +19752,20 @@
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19771,20 +19774,20 @@
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19793,20 +19796,20 @@
     </row>
     <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19821,7 +19824,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" t="s">
@@ -19840,10 +19843,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F22" t="s">
         <v>1335</v>
@@ -19947,18 +19950,18 @@
         <v>1257</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -19967,7 +19970,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1284</v>
@@ -19991,10 +19994,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H3" s="14" t="str">
         <f t="shared" ref="H3:H5" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
@@ -20006,10 +20009,10 @@
         <v>1365</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>1368</v>
@@ -20030,7 +20033,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>1367</v>
@@ -20078,18 +20081,18 @@
         <v>1257</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -20098,7 +20101,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1284</v>
@@ -20122,7 +20125,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="13" t="s">
@@ -20144,7 +20147,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="13" t="s">
@@ -20166,7 +20169,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="13" t="s">
@@ -20188,7 +20191,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="13" t="s">
@@ -20210,11 +20213,11 @@
         <v>2</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20229,7 +20232,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="13" t="s">
@@ -20248,7 +20251,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="13" t="s">
@@ -20267,7 +20270,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="18" t="s">
@@ -20286,16 +20289,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="H11" s="18" t="str">
-        <f t="shared" ref="H10:H11" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
+        <f t="shared" ref="H11" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
@@ -20335,13 +20338,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20355,7 +20358,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1284</v>
@@ -20379,7 +20382,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -20398,11 +20401,11 @@
         <v>41</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>1347</v>
@@ -20420,11 +20423,11 @@
         <v>25</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>1348</v>
@@ -20442,11 +20445,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>1349</v>
@@ -20464,11 +20467,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>1350</v>
@@ -20486,11 +20489,11 @@
         <v>33</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>1351</v>
@@ -20508,11 +20511,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>1352</v>
@@ -20524,17 +20527,17 @@
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>1353</v>
@@ -20546,17 +20549,17 @@
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>1354</v>
@@ -20571,19 +20574,19 @@
         <v>50</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>1458</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>1459</v>
-      </c>
       <c r="F12" s="18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20599,7 +20602,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="17" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>1355</v>
@@ -20618,7 +20621,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>1356</v>
@@ -20636,10 +20639,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14" t="s">
@@ -20659,7 +20662,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>1358</v>
@@ -20677,10 +20680,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14" t="s">
@@ -20699,11 +20702,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>1332</v>
@@ -20721,11 +20724,11 @@
         <v>5</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>1333</v>
@@ -20743,11 +20746,11 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>1334</v>
@@ -20766,7 +20769,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>1360</v>
@@ -20785,7 +20788,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="17" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>1361</v>
@@ -20803,7 +20806,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14" t="s">
@@ -20822,10 +20825,10 @@
         <v>10</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>1335</v>
@@ -20870,13 +20873,13 @@
         <v>1257</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20890,7 +20893,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1284</v>
@@ -20914,11 +20917,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H3" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20933,14 +20936,14 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20955,14 +20958,14 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20981,10 +20984,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20999,11 +21002,11 @@
         <v>27</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -21018,11 +21021,11 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="18" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -21037,14 +21040,14 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -21059,14 +21062,14 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -21082,10 +21085,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="17" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -21101,7 +21104,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="17" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F12" t="s">
         <v>1231</v>
@@ -21116,16 +21119,16 @@
         <v>1294</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>1458</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1459</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>1223</v>
@@ -21143,7 +21146,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14" t="s">
@@ -21162,16 +21165,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H15" s="14" t="str">
-        <f t="shared" ref="H14:H15" si="1">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
+        <f t="shared" ref="H15" si="1">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>

--- a/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
+++ b/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="848" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="848" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="error messages" sheetId="14" r:id="rId1"/>
@@ -29,12 +29,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">AllTimeZones!$B$1:$G$549</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="1480">
   <si>
     <t>recordSeq</t>
   </si>
@@ -4435,13 +4440,52 @@
   </si>
   <si>
     <t>studyMeasureId</t>
+  </si>
+  <si>
+    <t>preTaskEndTime</t>
+  </si>
+  <si>
+    <t>preTaskStartTime</t>
+  </si>
+  <si>
+    <t>taskStartTime</t>
+  </si>
+  <si>
+    <t>taskEndTime</t>
+  </si>
+  <si>
+    <t>postTaskStartTime</t>
+  </si>
+  <si>
+    <t>postTaskEndTime</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the preTask began</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the preTask ended</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the task began.</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the task ended.</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the postTask began.</t>
+  </si>
+  <si>
+    <t>The time, in server local time, that the postTask ended</t>
+  </si>
+  <si>
+    <t>This table is no lnger needed == it's been merged into session_config</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4518,6 +4562,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4567,7 +4618,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4609,8 +4660,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4633,8 +4696,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4654,6 +4718,12 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4673,6 +4743,12 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Input 2" xfId="40"/>
     <cellStyle name="Neutral 2" xfId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4980,18 +5056,18 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" customWidth="1"/>
     <col min="8" max="8" width="188" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -5014,7 +5090,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1300</v>
       </c>
@@ -5038,7 +5114,7 @@
         <v xml:space="preserve">  errorMessageId int(10) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique message ID. Used only to identify the record in the table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1301</v>
       </c>
@@ -5060,7 +5136,7 @@
         <v xml:space="preserve">  errorStatus int(10) unsigned NOT NULL  COMMENT 'HTTP error response status value',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1302</v>
       </c>
@@ -5082,7 +5158,7 @@
         <v xml:space="preserve">  messageVariation int(10) unsigned NOT NULL  COMMENT 'Variation of message. Supports multiple error messages for a single errorStatus value to provide more descriptive messages in specific situations.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1303</v>
       </c>
@@ -5104,7 +5180,7 @@
         <v xml:space="preserve">  messageLanguage char(8)  COLLATE utf8_unicode_ci  NOT NULL  COMMENT 'Language code of the message text language.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1304</v>
       </c>
@@ -5128,7 +5204,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5140,34 +5221,34 @@
       <selection activeCell="H20" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5190,7 +5271,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1363</v>
       </c>
@@ -5214,7 +5295,7 @@
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5236,7 +5317,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study to which this step belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1387</v>
       </c>
@@ -5258,7 +5339,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL  COMMENT 'Step sequence',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="14" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>1378</v>
       </c>
@@ -5280,7 +5361,7 @@
         <v xml:space="preserve">  preTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="14" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>1379</v>
       </c>
@@ -5302,7 +5383,7 @@
         <v xml:space="preserve">  preTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the pre-task page',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="14" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>1380</v>
       </c>
@@ -5324,7 +5405,7 @@
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="14" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>1381</v>
       </c>
@@ -5346,7 +5427,7 @@
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1248</v>
       </c>
@@ -5365,7 +5446,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT NULL COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1250</v>
       </c>
@@ -5387,7 +5468,7 @@
         <v xml:space="preserve">  taskBarCssPath varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1383</v>
       </c>
@@ -5409,7 +5490,7 @@
         <v xml:space="preserve">  taskBarHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1251</v>
       </c>
@@ -5431,7 +5512,7 @@
         <v xml:space="preserve">  exitButtonText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5453,7 +5534,7 @@
         <v xml:space="preserve">  tabShowText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -5475,7 +5556,7 @@
         <v xml:space="preserve">  tabHideText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1382</v>
       </c>
@@ -5497,7 +5578,7 @@
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1384</v>
       </c>
@@ -5519,7 +5600,7 @@
         <v xml:space="preserve">  postTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1385</v>
       </c>
@@ -5541,7 +5622,7 @@
         <v xml:space="preserve">  postTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the post-task page',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>1390</v>
       </c>
@@ -5563,7 +5644,7 @@
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1">
       <c r="A19" s="18" t="s">
         <v>1271</v>
       </c>
@@ -5582,7 +5663,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1">
       <c r="A20" s="18" t="s">
         <v>1272</v>
       </c>
@@ -5618,21 +5699,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="H9" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="107.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="107.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5655,7 +5736,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1280</v>
       </c>
@@ -5679,7 +5760,7 @@
         <v xml:space="preserve">  studyVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1376</v>
       </c>
@@ -5701,7 +5782,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL  COMMENT 'ID of the study variable to which this variation applies',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1224</v>
       </c>
@@ -5723,7 +5804,7 @@
         <v xml:space="preserve">  variationName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Human-readable name of this variation',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="14" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>1377</v>
       </c>
@@ -5745,7 +5826,7 @@
         <v xml:space="preserve">  variationDesc longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free-form description of this variation',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1228</v>
       </c>
@@ -5764,7 +5845,7 @@
         <v xml:space="preserve">  variationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Just these for now, we can support "other" in the future)',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1229</v>
       </c>
@@ -5786,7 +5867,7 @@
         <v xml:space="preserve">  variationCssPath varchar(1024) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path from the selected root to the CSS file that defines the variation. This should probably be validated in the UI…',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>1271</v>
       </c>
@@ -5805,7 +5886,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1">
       <c r="A9" s="18" t="s">
         <v>1272</v>
       </c>
@@ -5841,15 +5922,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="15.140625" style="18"/>
+    <col min="5" max="5" width="15.1640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5872,7 +5953,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1298</v>
       </c>
@@ -5895,7 +5976,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5917,7 +5998,7 @@
         <v xml:space="preserve">  username varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Account user name',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1264</v>
       </c>
@@ -5939,7 +6020,7 @@
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account that created this account',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>1279</v>
       </c>
@@ -5960,7 +6041,7 @@
         <v xml:space="preserve">  acctPassword varchar(512) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'hashed/encrypted password value; empty = no password (default)',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5982,7 +6063,7 @@
         <v xml:space="preserve">  firstName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'First name',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6003,7 +6084,7 @@
         <v xml:space="preserve">  lastName varchar(64) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Last name',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -6024,7 +6105,7 @@
         <v xml:space="preserve">  greetingName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Name used on personalized pages, defaults to first name if not provided.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -6045,7 +6126,7 @@
         <v xml:space="preserve">  orgName varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Organizational name',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6067,7 +6148,7 @@
         <v xml:space="preserve">  email varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Email of account contact',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1266</v>
       </c>
@@ -6086,7 +6167,7 @@
         <v xml:space="preserve">  accountType enum('admin','researcher','reviewer')   DEFAULT 'researcher' COMMENT 'for now this is how all accounts are defined',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -6108,7 +6189,7 @@
         <v xml:space="preserve">  wluxUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The root of pages and files hosted on the WLUX server',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6130,7 +6211,7 @@
         <v xml:space="preserve">  clientUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The default root of the server being tested (this will serve as the default value to use when defining a study)',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1295</v>
       </c>
@@ -6152,7 +6233,7 @@
         <v xml:space="preserve">  userFileRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1296</v>
       </c>
@@ -6174,7 +6255,7 @@
         <v xml:space="preserve">  userWebRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6198,7 +6279,7 @@
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="18" customFormat="1">
       <c r="A17" s="18" t="s">
         <v>1271</v>
       </c>
@@ -6217,7 +6298,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1">
       <c r="A18" s="18" t="s">
         <v>1272</v>
       </c>
@@ -6240,7 +6321,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6257,17 +6338,17 @@
       <selection activeCell="H11" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="18" customWidth="1"/>
-    <col min="6" max="6" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -6290,7 +6371,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1466</v>
       </c>
@@ -6314,7 +6395,7 @@
         <v xml:space="preserve">  studyMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6335,7 +6416,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1440</v>
       </c>
@@ -6356,7 +6437,7 @@
         <v xml:space="preserve">  measureId int(10) unsigned NOT NULL  COMMENT 'Relative index of this measure',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1233</v>
       </c>
@@ -6374,7 +6455,7 @@
         <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1235</v>
       </c>
@@ -6392,7 +6473,7 @@
         <v xml:space="preserve">  dataType enum('string','integer','float','date','time')  NOT NULL  COMMENT 'Data type returned by this variable',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1237</v>
       </c>
@@ -6413,7 +6494,7 @@
         <v xml:space="preserve">  displayUnits varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Units to display with this value (if any)',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1242</v>
       </c>
@@ -6431,7 +6512,7 @@
         <v xml:space="preserve">  computeBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -6449,7 +6530,7 @@
         <v xml:space="preserve">  displayBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
         <v>1271</v>
       </c>
@@ -6468,7 +6549,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1">
       <c r="A11" s="18" t="s">
         <v>1272</v>
       </c>
@@ -6491,6 +6572,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6502,17 +6588,17 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="18" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" customWidth="1"/>
+    <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -6535,7 +6621,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1376</v>
       </c>
@@ -6559,7 +6645,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6580,7 +6666,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Relation back to the study, defined in "study_general:studyId". A study can have from one to many variables.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1374</v>
       </c>
@@ -6601,7 +6687,7 @@
         <v xml:space="preserve">  variableName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this Independent Variable (e.g., "menu style" or "color scheme")',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>1271</v>
       </c>
@@ -6620,7 +6706,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1">
       <c r="A6" s="18" t="s">
         <v>1272</v>
       </c>
@@ -6643,6 +6729,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6650,21 +6741,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -6687,7 +6778,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1364</v>
       </c>
@@ -6711,7 +6802,7 @@
         <v xml:space="preserve">  studyStepDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1363</v>
       </c>
@@ -6732,7 +6823,7 @@
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL  COMMENT 'ID of study step to which this record relates',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="14" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>1365</v>
       </c>
@@ -6751,7 +6842,7 @@
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1366</v>
       </c>
@@ -6774,6 +6865,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6785,12 +6881,12 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6807,7 +6903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6917,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6835,7 +6931,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6852,7 +6948,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1232</v>
       </c>
@@ -6866,7 +6962,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1233</v>
       </c>
@@ -6880,7 +6976,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1235</v>
       </c>
@@ -6894,7 +6990,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1237</v>
       </c>
@@ -6911,7 +7007,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1242</v>
       </c>
@@ -6922,7 +7018,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -6933,7 +7029,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1271</v>
       </c>
@@ -6947,7 +7043,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1272</v>
       </c>
@@ -6961,7 +7057,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" s="7" customFormat="1" ht="28">
       <c r="A17" s="7" t="s">
         <v>1297</v>
       </c>
@@ -6984,18 +7080,18 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>1183</v>
       </c>
@@ -7015,7 +7111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1184</v>
       </c>
@@ -7041,7 +7137,7 @@
         <v>'UTC+00 Europe/London',</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1185</v>
       </c>
@@ -7067,7 +7163,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin',</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>1186</v>
       </c>
@@ -7093,7 +7189,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev',</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>1187</v>
       </c>
@@ -7119,7 +7215,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh',</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>1188</v>
       </c>
@@ -7145,7 +7241,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran',</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>1189</v>
       </c>
@@ -7171,7 +7267,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow',</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>1190</v>
       </c>
@@ -7197,7 +7293,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul',</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>1191</v>
       </c>
@@ -7223,7 +7319,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives',</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>1192</v>
       </c>
@@ -7249,7 +7345,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta',</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>1193</v>
       </c>
@@ -7275,7 +7371,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu',</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>1194</v>
       </c>
@@ -7301,7 +7397,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos',</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>1195</v>
       </c>
@@ -7327,7 +7423,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon',</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>1196</v>
       </c>
@@ -7353,7 +7449,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok',</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>1197</v>
       </c>
@@ -7379,7 +7475,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei',</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>1198</v>
       </c>
@@ -7408,7 +7504,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla',</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>1199</v>
       </c>
@@ -7434,7 +7530,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo',</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>1200</v>
       </c>
@@ -7463,7 +7559,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide',</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>1201</v>
       </c>
@@ -7492,7 +7588,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne',</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>1202</v>
       </c>
@@ -7521,7 +7617,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe',</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>1203</v>
       </c>
@@ -7550,7 +7646,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei',</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>1204</v>
       </c>
@@ -7576,7 +7672,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk',</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>1205</v>
       </c>
@@ -7605,7 +7701,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka',</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>1206</v>
       </c>
@@ -7634,7 +7730,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham',</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>1207</v>
       </c>
@@ -7660,7 +7756,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu',</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>1208</v>
       </c>
@@ -7689,7 +7785,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati',</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>1209</v>
       </c>
@@ -7718,7 +7814,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund',</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>1210</v>
       </c>
@@ -7747,7 +7843,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands',</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>1211</v>
       </c>
@@ -7776,7 +7872,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza',</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>1212</v>
       </c>
@@ -7805,7 +7901,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland',</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>1213</v>
       </c>
@@ -7834,7 +7930,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax',</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>1214</v>
       </c>
@@ -7860,7 +7956,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas',</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>1215</v>
       </c>
@@ -7889,7 +7985,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York',</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>1216</v>
       </c>
@@ -7918,7 +8014,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago',</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>1217</v>
       </c>
@@ -7947,7 +8043,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver',</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>1218</v>
       </c>
@@ -7976,7 +8072,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles',</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>1219</v>
       </c>
@@ -8005,7 +8101,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage',</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>1220</v>
       </c>
@@ -8034,7 +8130,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas',</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>1221</v>
       </c>
@@ -8063,7 +8159,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak',</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>1222</v>
       </c>
@@ -8110,18 +8206,18 @@
       <selection activeCell="B211" sqref="B211:C211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -8144,7 +8240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE("UTC",LEFT(E2,3),IF(VALUE(RIGHT(E2,2))&gt;0,RIGHT(E2,3),""))</f>
         <v>UTC+00</v>
@@ -8162,7 +8258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8180,7 +8276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8198,7 +8294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8216,7 +8312,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8234,7 +8330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8252,7 +8348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8270,7 +8366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8288,7 +8384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8306,7 +8402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8324,7 +8420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8342,7 +8438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8360,7 +8456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8378,7 +8474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8396,7 +8492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8414,7 +8510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8432,7 +8528,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8453,7 +8549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8474,7 +8570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8492,7 +8588,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8510,7 +8606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8531,7 +8627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8549,7 +8645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8567,7 +8663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8585,7 +8681,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8603,7 +8699,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8621,7 +8717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8639,7 +8735,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8657,7 +8753,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8675,7 +8771,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8693,7 +8789,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8711,7 +8807,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8729,7 +8825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8750,7 +8846,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8771,7 +8867,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8792,7 +8888,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8813,7 +8909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8831,7 +8927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8849,7 +8945,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8867,7 +8963,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8885,7 +8981,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8903,7 +8999,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8921,7 +9017,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8939,7 +9035,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8957,7 +9053,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8975,7 +9071,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8993,7 +9089,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9011,7 +9107,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9029,7 +9125,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9044,7 +9140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9059,7 +9155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9077,7 +9173,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9095,7 +9191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9113,7 +9209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9131,7 +9227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9152,7 +9248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9170,7 +9266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9191,7 +9287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9209,7 +9305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9227,7 +9323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9245,7 +9341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9263,7 +9359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9281,7 +9377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9299,7 +9395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9317,7 +9413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE("UTC",LEFT(E66,3),IF(VALUE(RIGHT(E66,2))&gt;0,RIGHT(E66,3),""))</f>
         <v>UTC+01</v>
@@ -9335,7 +9431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9353,7 +9449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9374,7 +9470,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9392,7 +9488,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9407,7 +9503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9425,7 +9521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9443,7 +9539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9461,7 +9557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9482,7 +9578,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9503,7 +9599,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9521,7 +9617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9539,7 +9635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9557,7 +9653,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9575,7 +9671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9596,7 +9692,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9614,7 +9710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9635,7 +9731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9653,7 +9749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9671,7 +9767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9689,7 +9785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9707,7 +9803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9728,7 +9824,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9746,7 +9842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9764,7 +9860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9785,7 +9881,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9806,7 +9902,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9827,7 +9923,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9845,7 +9941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9863,7 +9959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9881,7 +9977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9902,7 +9998,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9920,7 +10016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9938,7 +10034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9959,7 +10055,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9977,7 +10073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -9992,7 +10088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10010,7 +10106,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10028,7 +10124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10046,7 +10142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10067,7 +10163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10085,7 +10181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10103,7 +10199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10121,7 +10217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10139,7 +10235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10160,7 +10256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10178,7 +10274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10196,7 +10292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10214,7 +10310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10232,7 +10328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10250,7 +10346,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10268,7 +10364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10286,7 +10382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10304,7 +10400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10325,7 +10421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10346,7 +10442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10364,7 +10460,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10382,7 +10478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10400,7 +10496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10418,7 +10514,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10433,7 +10529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10451,7 +10547,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10469,7 +10565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10487,7 +10583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10505,7 +10601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE("UTC",LEFT(E130,3),IF(VALUE(RIGHT(E130,2))&gt;0,RIGHT(E130,3),""))</f>
         <v>UTC+02</v>
@@ -10523,7 +10619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10541,7 +10637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10562,7 +10658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10583,7 +10679,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10601,7 +10697,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10619,7 +10715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10640,7 +10736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10658,7 +10754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10676,7 +10772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10694,7 +10790,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10715,7 +10811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10733,7 +10829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10754,7 +10850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10772,7 +10868,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10790,7 +10886,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -10808,7 +10904,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10826,7 +10922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10844,7 +10940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10862,7 +10958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10880,7 +10976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10898,7 +10994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10916,7 +11012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10934,7 +11030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10952,7 +11048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10970,7 +11066,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -10988,7 +11084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11009,7 +11105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11027,7 +11123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11045,7 +11141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11063,7 +11159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11081,7 +11177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11099,7 +11195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11117,7 +11213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11138,7 +11234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11156,7 +11252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11174,7 +11270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11192,7 +11288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11210,7 +11306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -11228,7 +11324,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -11246,7 +11342,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11264,7 +11360,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11282,7 +11378,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11300,7 +11396,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11318,7 +11414,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11336,7 +11432,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11357,7 +11453,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11378,7 +11474,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11399,7 +11495,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11417,7 +11513,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11435,7 +11531,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11453,7 +11549,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -11471,7 +11567,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04:30</v>
@@ -11489,7 +11585,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11510,7 +11606,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11531,7 +11627,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11552,7 +11648,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11573,7 +11669,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11591,7 +11687,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11609,7 +11705,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11627,7 +11723,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11645,7 +11741,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11666,7 +11762,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11687,7 +11783,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -11708,7 +11804,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">CONCATENATE("UTC",LEFT(E194,3),IF(VALUE(RIGHT(E194,2))&gt;0,RIGHT(E194,3),""))</f>
         <v>UTC+05</v>
@@ -11726,7 +11822,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05</v>
@@ -11744,7 +11840,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -11762,7 +11858,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -11780,7 +11876,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -11801,7 +11897,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -11819,7 +11915,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -11837,7 +11933,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11858,7 +11954,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11879,7 +11975,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11897,7 +11993,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11915,7 +12011,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11933,7 +12029,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11954,7 +12050,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11972,7 +12068,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -11990,7 +12086,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12011,7 +12107,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12029,7 +12125,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -12047,7 +12143,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -12065,7 +12161,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12083,7 +12179,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12101,7 +12197,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12122,7 +12218,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12143,7 +12239,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12164,7 +12260,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12185,7 +12281,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12206,7 +12302,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12224,7 +12320,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12245,7 +12341,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12263,7 +12359,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12281,7 +12377,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12299,7 +12395,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12317,7 +12413,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12338,7 +12434,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12362,7 +12458,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12380,7 +12476,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12404,7 +12500,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12422,7 +12518,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12446,7 +12542,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12467,7 +12563,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12488,7 +12584,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12509,7 +12605,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12527,7 +12623,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12545,7 +12641,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12566,7 +12662,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12584,7 +12680,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12608,7 +12704,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12626,7 +12722,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12644,7 +12740,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12662,7 +12758,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12683,7 +12779,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12701,7 +12797,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12725,7 +12821,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12746,7 +12842,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12764,7 +12860,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12782,7 +12878,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12800,7 +12896,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12818,7 +12914,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -12836,7 +12932,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08:45</v>
@@ -12857,7 +12953,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -12875,7 +12971,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -12896,7 +12992,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -12917,7 +13013,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -12935,7 +13031,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -12953,7 +13049,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A321" si="4">CONCATENATE("UTC",LEFT(E258,3),IF(VALUE(RIGHT(E258,2))&gt;0,RIGHT(E258,3),""))</f>
         <v>UTC+09</v>
@@ -12971,7 +13067,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -12989,7 +13085,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13007,7 +13103,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13025,7 +13121,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13043,7 +13139,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13064,7 +13160,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13085,7 +13181,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13106,7 +13202,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13124,7 +13220,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13142,7 +13238,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13160,7 +13256,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13181,7 +13277,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13202,7 +13298,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13220,7 +13316,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13241,7 +13337,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13259,7 +13355,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13280,7 +13376,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13301,7 +13397,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13322,7 +13418,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13343,7 +13439,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13361,7 +13457,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13379,7 +13475,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13400,7 +13496,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13418,7 +13514,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13436,7 +13532,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13457,7 +13553,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13475,7 +13571,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13493,7 +13589,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13511,7 +13607,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13529,7 +13625,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13547,7 +13643,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -13565,7 +13661,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -13586,7 +13682,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13607,7 +13703,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13628,7 +13724,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13649,7 +13745,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13670,7 +13766,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13688,7 +13784,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13706,7 +13802,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13727,7 +13823,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13745,7 +13841,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13766,7 +13862,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -13784,7 +13880,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11:30</v>
@@ -13802,7 +13898,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13823,7 +13919,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13847,7 +13943,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13868,7 +13964,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13889,7 +13985,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13910,7 +14006,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13928,7 +14024,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13946,7 +14042,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13967,7 +14063,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -13985,7 +14081,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14003,7 +14099,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14024,7 +14120,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14045,7 +14141,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14063,7 +14159,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14084,7 +14180,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14105,7 +14201,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14123,7 +14219,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -14141,7 +14237,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -14162,7 +14258,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -14180,7 +14276,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -14201,7 +14297,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="str">
         <f t="shared" ref="A322:A385" si="5">CONCATENATE("UTC",LEFT(E322,3),IF(VALUE(RIGHT(E322,2))&gt;0,RIGHT(E322,3),""))</f>
         <v>UTC+13</v>
@@ -14219,7 +14315,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" t="str">
         <f t="shared" si="5"/>
         <v>UTC+13</v>
@@ -14237,7 +14333,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v>UTC+14</v>
@@ -14258,7 +14354,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -14279,7 +14375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -14300,7 +14396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -14318,7 +14414,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -14339,7 +14435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -14357,7 +14453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -14375,7 +14471,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14396,7 +14492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14417,7 +14513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14438,7 +14534,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14456,7 +14552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14477,7 +14573,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14498,7 +14594,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14519,7 +14615,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14540,7 +14636,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14561,7 +14657,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14582,7 +14678,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14603,7 +14699,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14624,7 +14720,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14645,7 +14741,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14666,7 +14762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14687,7 +14783,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14708,7 +14804,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14726,7 +14822,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14744,7 +14840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14762,7 +14858,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14780,7 +14876,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14801,7 +14897,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14822,7 +14918,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14840,7 +14936,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14861,7 +14957,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14879,7 +14975,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14897,7 +14993,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14915,7 +15011,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14933,7 +15029,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14954,7 +15050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14972,7 +15068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -14993,7 +15089,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15014,7 +15110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15035,7 +15131,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15053,7 +15149,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15071,7 +15167,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -15092,7 +15188,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -15110,7 +15206,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15128,7 +15224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15146,7 +15242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15164,7 +15260,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15182,7 +15278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15200,7 +15296,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15221,7 +15317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15242,7 +15338,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15263,7 +15359,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15284,7 +15380,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15302,7 +15398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15320,7 +15416,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15341,7 +15437,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15362,7 +15458,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15383,7 +15479,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15401,7 +15497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15419,7 +15515,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15437,7 +15533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15458,7 +15554,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="str">
         <f t="shared" ref="A386:A449" si="6">CONCATENATE("UTC",LEFT(E386,3),IF(VALUE(RIGHT(E386,2))&gt;0,RIGHT(E386,3),""))</f>
         <v>UTC−04</v>
@@ -15479,7 +15575,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15497,7 +15593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15518,7 +15614,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15539,7 +15635,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15560,7 +15656,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15578,7 +15674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15599,7 +15695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15617,7 +15713,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15635,7 +15731,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15656,7 +15752,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15674,7 +15770,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15695,7 +15791,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15713,7 +15809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15734,7 +15830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15752,7 +15848,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15770,7 +15866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15788,7 +15884,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15806,7 +15902,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15827,7 +15923,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15845,7 +15941,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15863,7 +15959,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15884,7 +15980,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15902,7 +15998,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15920,7 +16016,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15938,7 +16034,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -15956,7 +16052,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04:30</v>
@@ -15974,7 +16070,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -15995,7 +16091,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16013,7 +16109,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16031,7 +16127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16049,7 +16145,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16070,7 +16166,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16088,7 +16184,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16106,7 +16202,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16127,7 +16223,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16145,7 +16241,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16166,7 +16262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16187,7 +16283,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16208,7 +16304,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16229,7 +16325,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16250,7 +16346,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16271,7 +16367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16289,7 +16385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16310,7 +16406,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16328,7 +16424,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16349,7 +16445,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16370,7 +16466,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16388,7 +16484,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16406,7 +16502,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16427,7 +16523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16445,7 +16541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16466,7 +16562,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16487,7 +16583,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16505,7 +16601,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16526,7 +16622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16544,7 +16640,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16559,7 +16655,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16577,7 +16673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16598,7 +16694,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16619,7 +16715,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16634,7 +16730,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16652,7 +16748,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16670,7 +16766,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16685,7 +16781,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" t="str">
         <f t="shared" ref="A450:A513" si="7">CONCATENATE("UTC",LEFT(E450,3),IF(VALUE(RIGHT(E450,2))&gt;0,RIGHT(E450,3),""))</f>
         <v>UTC−05</v>
@@ -16700,7 +16796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -16718,7 +16814,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -16736,7 +16832,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -16754,7 +16850,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -16772,7 +16868,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16793,7 +16889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16811,7 +16907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16832,7 +16928,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16853,7 +16949,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16871,7 +16967,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16889,7 +16985,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16907,7 +17003,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16928,7 +17024,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16949,7 +17045,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16967,7 +17063,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6">
       <c r="A465" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -16985,7 +17081,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6">
       <c r="A466" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17006,7 +17102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6">
       <c r="A467" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17027,7 +17123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6">
       <c r="A468" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17048,7 +17144,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6">
       <c r="A469" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17069,7 +17165,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6">
       <c r="A470" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17090,7 +17186,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6">
       <c r="A471" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17111,7 +17207,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6">
       <c r="A472" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17132,7 +17228,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6">
       <c r="A473" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17153,7 +17249,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6">
       <c r="A474" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17174,7 +17270,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6">
       <c r="A475" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17195,7 +17291,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6">
       <c r="A476" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17216,7 +17312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6">
       <c r="A477" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17237,7 +17333,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6">
       <c r="A478" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17258,7 +17354,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6">
       <c r="A479" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17276,7 +17372,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6">
       <c r="A480" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17297,7 +17393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17315,7 +17411,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17333,7 +17429,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17351,7 +17447,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17369,7 +17465,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17384,7 +17480,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17402,7 +17498,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17423,7 +17519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17444,7 +17540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17462,7 +17558,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17480,7 +17576,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17501,7 +17597,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17522,7 +17618,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17543,7 +17639,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17564,7 +17660,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17585,7 +17681,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17606,7 +17702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17627,7 +17723,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17648,7 +17744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17669,7 +17765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17690,7 +17786,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17711,7 +17807,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17732,7 +17828,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17756,7 +17852,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17777,7 +17873,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17795,7 +17891,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17813,7 +17909,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17828,7 +17924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17843,7 +17939,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17861,7 +17957,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17879,7 +17975,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -17897,7 +17993,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -17918,7 +18014,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -17936,7 +18032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" t="str">
         <f t="shared" ref="A514:A549" si="8">CONCATENATE("UTC",LEFT(E514,3),IF(VALUE(RIGHT(E514,2))&gt;0,RIGHT(E514,3),""))</f>
         <v>UTC−08</v>
@@ -17957,7 +18053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -17978,7 +18074,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -17999,7 +18095,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18020,7 +18116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18041,7 +18137,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18062,7 +18158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18080,7 +18176,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18098,7 +18194,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18116,7 +18212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18134,7 +18230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18149,7 +18245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18167,7 +18263,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18185,7 +18281,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18203,7 +18299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18224,7 +18320,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18245,7 +18341,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18266,7 +18362,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18287,7 +18383,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18308,7 +18404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18329,7 +18425,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18347,7 +18443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09:30</v>
@@ -18368,7 +18464,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18389,7 +18485,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18407,7 +18503,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18422,7 +18518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18443,7 +18539,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18464,7 +18560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18482,7 +18578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18503,7 +18599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18521,7 +18617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -18539,7 +18635,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -18560,7 +18656,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -18578,7 +18674,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -18596,7 +18692,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -18614,7 +18710,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -18652,17 +18748,17 @@
       <selection activeCell="H6" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -18685,7 +18781,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1305</v>
       </c>
@@ -18709,7 +18805,7 @@
         <v xml:space="preserve">  debugId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1260</v>
       </c>
@@ -18731,7 +18827,7 @@
         <v xml:space="preserve">  moduleName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Module to which this setting applies.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1277</v>
       </c>
@@ -18753,7 +18849,7 @@
         <v xml:space="preserve">  methodName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Method to which this setting applies.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1261</v>
       </c>
@@ -18774,7 +18870,7 @@
         <v xml:space="preserve">  returnDbgData tinyint(1)  NOT NULL  DEFAULT '0' COMMENT 'When TRUE, the specified module and method should return a debug data structure in the repsonse.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1262</v>
       </c>
@@ -18797,7 +18893,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18806,21 +18907,21 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H2:H8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="18" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="156.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="156.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -18843,7 +18944,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1306</v>
       </c>
@@ -18867,7 +18968,7 @@
         <v xml:space="preserve">  gratuityLogId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18889,7 +18990,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL   COMMENT 'ID of study to which this gratuity entry belongs.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1285</v>
       </c>
@@ -18911,7 +19012,7 @@
         <v xml:space="preserve">  periodName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Name of study period in the study identified by studyId to which this entry belongs.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18932,7 +19033,7 @@
         <v xml:space="preserve">  email varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Email address entered by the participant.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -18953,7 +19054,7 @@
         <v xml:space="preserve">  comments varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Comments entered by the participant.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1">
       <c r="A7" s="18" t="s">
         <v>1271</v>
       </c>
@@ -18972,7 +19073,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>1272</v>
       </c>
@@ -18996,6 +19097,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19007,18 +19113,18 @@
       <selection activeCell="H14" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" customWidth="1"/>
-    <col min="8" max="8" width="192.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" customWidth="1"/>
+    <col min="8" max="8" width="192.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -19041,7 +19147,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1299</v>
       </c>
@@ -19065,7 +19171,7 @@
         <v xml:space="preserve">  logTransitionId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -19087,7 +19193,7 @@
         <v xml:space="preserve">  serverTimestamp timestamp  NOT NULL  DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'Time read from server that the activity took place. Stored in server time zone.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -19108,7 +19214,7 @@
         <v xml:space="preserve">  clientTimestamp bigint(20) unsigned  DEFAULT NULL COMMENT 'The timestamp information provided by the client site. Treated as a number. If NULL or 0, the serverTimestamp field is used for timing activities.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -19130,7 +19236,7 @@
         <v xml:space="preserve">  recordType enum('open','transition')  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'The type of log record. Possible values are: "open" - records page loads; "transition" - records navigation activity.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -19152,7 +19258,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL   COMMENT 'The participant session in which the activity occured.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>1336</v>
       </c>
@@ -19174,7 +19280,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL   COMMENT 'The study config record in use when the activity ocurred.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1387</v>
       </c>
@@ -19196,7 +19302,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL   COMMENT 'The index of the protocol step in which the activity ocurred.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1281</v>
       </c>
@@ -19218,7 +19324,7 @@
         <v xml:space="preserve">  taskVariationId int(10) unsigned NOT NULL   COMMENT 'RESERVED',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -19239,7 +19345,7 @@
         <v xml:space="preserve">  fromUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of page with link that was opened or clicked',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -19260,7 +19366,7 @@
         <v xml:space="preserve">  toUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of link destination',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -19281,7 +19387,7 @@
         <v xml:space="preserve">  linkClass varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'class attribute of link',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -19302,7 +19408,7 @@
         <v xml:space="preserve">  linkId varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'ID attribute of link',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -19338,37 +19444,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H2:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
@@ -19391,7 +19497,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1336</v>
       </c>
@@ -19415,7 +19521,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -19435,11 +19541,11 @@
         <v>1337</v>
       </c>
       <c r="H3" s="14" t="str">
-        <f t="shared" ref="H3:H22" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
+        <f t="shared" ref="H3:H28" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -19463,7 +19569,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of study that defined this session',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="14" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>1363</v>
       </c>
@@ -19487,7 +19593,7 @@
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of the study step this record references',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="14" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>1387</v>
       </c>
@@ -19511,7 +19617,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL DEFAULT '0'  COMMENT 'Step sequence',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="14" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>1378</v>
       </c>
@@ -19533,7 +19639,7 @@
         <v xml:space="preserve">  preTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="14" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>1379</v>
       </c>
@@ -19555,7 +19661,7 @@
         <v xml:space="preserve">  preTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the pre-task page',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="14" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>1380</v>
       </c>
@@ -19577,7 +19683,7 @@
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>1381</v>
       </c>
@@ -19599,7 +19705,7 @@
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>1248</v>
       </c>
@@ -19618,7 +19724,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="14" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>1250</v>
       </c>
@@ -19640,7 +19746,7 @@
         <v xml:space="preserve">  taskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>1383</v>
       </c>
@@ -19662,7 +19768,7 @@
         <v xml:space="preserve">  taskBarHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>1251</v>
       </c>
@@ -19684,7 +19790,7 @@
         <v xml:space="preserve">  exitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="14" customFormat="1">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
@@ -19706,7 +19812,7 @@
         <v xml:space="preserve">  tabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="14" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
@@ -19728,7 +19834,7 @@
         <v xml:space="preserve">  tabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="14" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>1382</v>
       </c>
@@ -19750,7 +19856,7 @@
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>1384</v>
       </c>
@@ -19772,7 +19878,7 @@
         <v xml:space="preserve">  postTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="14" customFormat="1">
       <c r="A19" s="14" t="s">
         <v>1385</v>
       </c>
@@ -19794,7 +19900,7 @@
         <v xml:space="preserve">  postTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the post-task page',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="14" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>1390</v>
       </c>
@@ -19816,7 +19922,7 @@
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>1271</v>
       </c>
@@ -19835,7 +19941,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>1272</v>
       </c>
@@ -19856,51 +19962,151 @@
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="18" customFormat="1">
+      <c r="A23" s="18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  preTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask began',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1">
+      <c r="A24" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  preTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask ended',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1">
+      <c r="A25" s="18" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  taskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task began.',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1">
+      <c r="A26" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  taskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task ended.',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1">
+      <c r="A27" s="18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  postTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask began.',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1">
+      <c r="A28" s="18" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  postTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask ended',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="D29" s="3"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="D30" s="3"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31" s="3"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="D32" s="1"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5">
       <c r="D33" s="3"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5">
       <c r="D34" s="3"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5">
       <c r="D35" s="3"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5">
       <c r="D36" s="3"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5">
       <c r="D37" s="3"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5">
       <c r="D38" s="1"/>
       <c r="E38" s="15"/>
     </row>
@@ -19923,20 +20129,20 @@
       <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="109.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="18.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="14"/>
+    <col min="8" max="8" width="109.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -19959,7 +20165,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>1408</v>
       </c>
@@ -19983,7 +20189,7 @@
         <v xml:space="preserve">  studyConfigDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>1336</v>
       </c>
@@ -20004,7 +20210,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL  COMMENT 'ID of study config record to which this record relates',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
         <v>1365</v>
       </c>
@@ -20022,7 +20228,7 @@
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
         <v>1366</v>
       </c>
@@ -20045,29 +20251,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H2:H11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="67.42578125" customWidth="1"/>
-    <col min="8" max="8" width="155.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="67.5" customWidth="1"/>
+    <col min="8" max="8" width="155.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -20090,7 +20301,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1462</v>
       </c>
@@ -20114,7 +20325,7 @@
         <v xml:space="preserve">  sessionLogId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -20136,7 +20347,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL  COMMENT 'ID of participant session',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -20158,7 +20369,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'ID of study that defined this participant session',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1336</v>
       </c>
@@ -20180,7 +20391,7 @@
         <v xml:space="preserve">  sessionConfigId int(10) unsigned NOT NULL  COMMENT 'ID study variation this record describes',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -20202,7 +20413,7 @@
         <v xml:space="preserve">  taskId int(10) unsigned NOT NULL  COMMENT 'ID of task this record describes. Records with a taskId=0 describe the entire session.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1263</v>
       </c>
@@ -20224,7 +20435,7 @@
         <v xml:space="preserve">  taskVariationNo int(10) unsigned NOT NULL  COMMENT 'RESERVED',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -20243,7 +20454,7 @@
         <v xml:space="preserve">  startTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation began.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -20262,7 +20473,7 @@
         <v xml:space="preserve">  endTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation ended.',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
         <v>1271</v>
       </c>
@@ -20281,7 +20492,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1">
       <c r="A11" s="18" t="s">
         <v>1272</v>
       </c>
@@ -20302,8 +20513,23 @@
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="2" customFormat="1"/>
+    <row r="16" spans="1:8" s="2" customFormat="1"/>
+    <row r="17" spans="1:1" s="22" customFormat="1" ht="36">
+      <c r="A17" s="22" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1"/>
+    <row r="19" spans="1:1" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20311,20 +20537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -20347,7 +20573,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -20371,7 +20597,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique ID of a study configuration',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1264</v>
       </c>
@@ -20393,7 +20619,7 @@
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account to which the study belongs. The value is the user_accounts:accountId of the owner.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -20415,7 +20641,7 @@
         <v xml:space="preserve">  studyName varchar(127)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'The human-readable name of the study.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -20437,7 +20663,7 @@
         <v xml:space="preserve">  studyDescription longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Free text description of the study.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -20459,7 +20685,7 @@
         <v xml:space="preserve">  researcherOrg varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Organization name listed as contact info for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -20481,7 +20707,7 @@
         <v xml:space="preserve">  researcherFirstName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'First name for researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -20503,7 +20729,7 @@
         <v xml:space="preserve">  researcherLastName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Last name for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -20525,7 +20751,7 @@
         <v xml:space="preserve">  researcherEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
         <v>1422</v>
       </c>
@@ -20547,7 +20773,7 @@
         <v xml:space="preserve">  researcherAddress varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Mailing addres for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
         <v>1423</v>
       </c>
@@ -20569,7 +20795,7 @@
         <v xml:space="preserve">  ethicsBoardEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the ethics board / institutional review board who approved this studys procedures.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1">
       <c r="A12" s="18" t="s">
         <v>50</v>
       </c>
@@ -20593,7 +20819,7 @@
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>1245</v>
       </c>
@@ -20612,7 +20838,7 @@
         <v xml:space="preserve">  defaultVariationMethod enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'Describes how IV levels are selected during a participant session.',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1248</v>
       </c>
@@ -20631,7 +20857,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the task bar CSS.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1249</v>
       </c>
@@ -20653,7 +20879,7 @@
         <v xml:space="preserve">  defaultTaskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the task bar CSS from the specified root path.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1246</v>
       </c>
@@ -20672,7 +20898,7 @@
         <v xml:space="preserve">  defaultVariationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the variation CSS files.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1247</v>
       </c>
@@ -20694,7 +20920,7 @@
         <v xml:space="preserve">  defaultVariationCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the variation CSS files from the specified root path.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>1252</v>
       </c>
@@ -20716,7 +20942,7 @@
         <v xml:space="preserve">  defaultExitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display on the button that ends the task on the client site and returns to the page desribed by the taskReturnUrl.',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1253</v>
       </c>
@@ -20738,7 +20964,7 @@
         <v xml:space="preserve">  defaultTabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display on the SHOW button of the the task bar displayed on the client site during a task.',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>1254</v>
       </c>
@@ -20760,7 +20986,7 @@
         <v xml:space="preserve">  defaultTabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display on the HIDE button of the the task bar displayed on the client site during a task.',</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>1259</v>
       </c>
@@ -20779,7 +21005,7 @@
         <v xml:space="preserve">  clientTimeStampFormat enum('default')   DEFAULT 'default' COMMENT 'The formula to use to interpret the client time stamp sent to the log_transition file.',</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>1274</v>
       </c>
@@ -20798,7 +21024,7 @@
         <v xml:space="preserve">  studyStatus enum('draft','scheduled','completed','archived')   DEFAULT 'draft' COMMENT 'The current state of this study.',</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="14" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>1271</v>
       </c>
@@ -20817,7 +21043,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="14" customFormat="1">
       <c r="A24" s="14" t="s">
         <v>1272</v>
       </c>
@@ -20841,6 +21067,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20848,18 +21079,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H15" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="1" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -20882,7 +21113,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1362</v>
       </c>
@@ -20906,7 +21137,7 @@
         <v xml:space="preserve">  studyPeriodId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20928,7 +21159,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study ID (study_general:studyId of the study to which this schedule period belongs. Study owner is defined by the study ID in the study_general table.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1285</v>
       </c>
@@ -20950,7 +21181,7 @@
         <v xml:space="preserve">  periodName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this study period.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1286</v>
       </c>
@@ -20972,7 +21203,7 @@
         <v xml:space="preserve">  periodDescription longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free text field to describe the study period.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1287</v>
       </c>
@@ -20994,7 +21225,7 @@
         <v xml:space="preserve">  periodParticipantLimit bigint(20) unsigned  DEFAULT NULL COMMENT 'The maximum number of participant sessions to accept during this study period. -1 = no limit. This is the total number of sessions to allow: completed and partial.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1288</v>
       </c>
@@ -21013,7 +21244,7 @@
         <v xml:space="preserve">  periodStartTime datetime  NOT NULL  COMMENT 'Start time of this period. Participant sessions will be allowed when the current time is &gt; this time. A time of 0 = the session starts immediately.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1289</v>
       </c>
@@ -21032,7 +21263,7 @@
         <v xml:space="preserve">  periodEndTime datetime  NOT NULL  COMMENT 'End time of this period. Participant sessions will be allowed when the current time is &lt; this time. A time of 0 = the session runs forever.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1290</v>
       </c>
@@ -21054,7 +21285,7 @@
         <v xml:space="preserve">  periodAnnouncementText longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Recruitment email text sent to periodEmailList when study opens.',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1291</v>
       </c>
@@ -21076,7 +21307,7 @@
         <v xml:space="preserve">  periodEmailList longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Comma-separated list of e-mail names',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1292</v>
       </c>
@@ -21095,7 +21326,7 @@
         <v xml:space="preserve">  periodTaskSequence enum('sequential','random')   DEFAULT 'random' COMMENT 'Specifies the task order of tasks marked as programmed.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1293</v>
       </c>
@@ -21114,7 +21345,7 @@
         <v xml:space="preserve">  periodStudyVariations enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'For now. Future options could include: singleSequential,mulitpleRandom, multipleSequential, etc.)',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1">
       <c r="A13" s="18" t="s">
         <v>1294</v>
       </c>
@@ -21138,7 +21369,7 @@
         <v xml:space="preserve">  periodTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Defaults to study timezone value',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>1271</v>
       </c>
@@ -21157,7 +21388,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="14" customFormat="1">
       <c r="A15" s="14" t="s">
         <v>1272</v>
       </c>
@@ -21181,5 +21412,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
+++ b/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="848" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="848" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="error messages" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AllTimeZones!$B$1:$G$549</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1481">
   <si>
     <t>recordSeq</t>
   </si>
@@ -4479,6 +4479,12 @@
   </si>
   <si>
     <t>Thi</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>When true, the record is no longer available to users or computations</t>
   </si>
 </sst>
 </file>
@@ -4610,7 +4616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4664,6 +4670,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4691,7 +4703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4717,6 +4729,9 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4742,6 +4757,9 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Input 2" xfId="40"/>
     <cellStyle name="Neutral 2" xfId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5049,18 +5067,18 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" customWidth="1"/>
     <col min="8" max="8" width="188" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -5083,7 +5101,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1298</v>
       </c>
@@ -5107,7 +5125,7 @@
         <v xml:space="preserve">  errorMessageId int(10) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique message ID. Used only to identify the record in the table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1299</v>
       </c>
@@ -5129,7 +5147,7 @@
         <v xml:space="preserve">  errorStatus int(10) unsigned NOT NULL  COMMENT 'HTTP error response status value',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1300</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v xml:space="preserve">  messageVariation int(10) unsigned NOT NULL  COMMENT 'Variation of message. Supports multiple error messages for a single errorStatus value to provide more descriptive messages in specific situations.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1301</v>
       </c>
@@ -5173,7 +5191,7 @@
         <v xml:space="preserve">  messageLanguage char(8)  COLLATE utf8_unicode_ci  NOT NULL  COMMENT 'Language code of the message text language.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1302</v>
       </c>
@@ -5208,22 +5226,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5270,7 +5288,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique ID of a study configuration',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1263</v>
       </c>
@@ -5288,11 +5306,11 @@
         <v>1341</v>
       </c>
       <c r="H3" s="13" t="str">
-        <f t="shared" ref="H3:H24" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
+        <f t="shared" ref="H3:H25" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account to which the study belongs. The value is the user_accounts:accountId of the owner.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5314,7 +5332,7 @@
         <v xml:space="preserve">  studyName varchar(127)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'The human-readable name of the study.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -5336,7 +5354,7 @@
         <v xml:space="preserve">  studyDescription longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Free text description of the study.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5358,7 +5376,7 @@
         <v xml:space="preserve">  researcherOrg varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Organization name listed as contact info for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -5380,7 +5398,7 @@
         <v xml:space="preserve">  researcherFirstName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'First name for researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -5402,7 +5420,7 @@
         <v xml:space="preserve">  researcherLastName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Last name for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5424,7 +5442,7 @@
         <v xml:space="preserve">  researcherEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="12" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>1416</v>
       </c>
@@ -5446,7 +5464,7 @@
         <v xml:space="preserve">  researcherAddress varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Mailing addres for the researcher who is the primary (public) contact for this study.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="12" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>1417</v>
       </c>
@@ -5468,7 +5486,7 @@
         <v xml:space="preserve">  ethicsBoardEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the ethics board / institutional review board who approved this studys procedures.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
         <v>50</v>
       </c>
@@ -5492,7 +5510,7 @@
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>1245</v>
       </c>
@@ -5511,7 +5529,7 @@
         <v xml:space="preserve">  defaultVariationMethod enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'Describes how IV levels are selected during a participant session.',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1248</v>
       </c>
@@ -5530,7 +5548,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the task bar CSS.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1249</v>
       </c>
@@ -5552,7 +5570,7 @@
         <v xml:space="preserve">  defaultTaskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the task bar CSS from the specified root path.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1246</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v xml:space="preserve">  defaultVariationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the variation CSS files.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1247</v>
       </c>
@@ -5593,7 +5611,7 @@
         <v xml:space="preserve">  defaultVariationCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the variation CSS files from the specified root path.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>1252</v>
       </c>
@@ -5615,7 +5633,7 @@
         <v xml:space="preserve">  defaultExitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display on the button that ends the task on the client site and returns to the page desribed by the taskReturnUrl.',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1253</v>
       </c>
@@ -5637,7 +5655,7 @@
         <v xml:space="preserve">  defaultTabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display on the SHOW button of the the task bar displayed on the client site during a task.',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>1254</v>
       </c>
@@ -5659,7 +5677,7 @@
         <v xml:space="preserve">  defaultTabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display on the HIDE button of the the task bar displayed on the client site during a task.',</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>1259</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v xml:space="preserve">  clientTimeStampFormat enum('default')   DEFAULT 'default' COMMENT 'The formula to use to interpret the client time stamp sent to the log_transition file.',</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>1273</v>
       </c>
@@ -5697,7 +5715,7 @@
         <v xml:space="preserve">  studyStatus enum('draft','scheduled','completed','archived')   DEFAULT 'draft' COMMENT 'The current state of this study.',</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
         <v>1270</v>
       </c>
@@ -5716,7 +5734,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="13" customFormat="1">
       <c r="A24" s="13" t="s">
         <v>1271</v>
       </c>
@@ -5735,6 +5753,27 @@
       <c r="H24" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -5750,20 +5789,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="1" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5825,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1357</v>
       </c>
@@ -5810,7 +5849,7 @@
         <v xml:space="preserve">  studyPeriodId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5832,7 +5871,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study ID (study_general:studyId of the study to which this schedule period belongs. Study owner is defined by the study ID in the study_general table.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -5854,7 +5893,7 @@
         <v xml:space="preserve">  periodName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this study period.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1285</v>
       </c>
@@ -5876,7 +5915,7 @@
         <v xml:space="preserve">  periodDescription longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free text field to describe the study period.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1286</v>
       </c>
@@ -5898,7 +5937,7 @@
         <v xml:space="preserve">  periodParticipantLimit bigint(20) unsigned  DEFAULT NULL COMMENT 'The maximum number of participant sessions to accept during this study period. -1 = no limit. This is the total number of sessions to allow: completed and partial.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1287</v>
       </c>
@@ -5917,7 +5956,7 @@
         <v xml:space="preserve">  periodStartTime datetime  NOT NULL  COMMENT 'Start time of this period. Participant sessions will be allowed when the current time is &gt; this time. A time of 0 = the session starts immediately.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1288</v>
       </c>
@@ -5936,7 +5975,7 @@
         <v xml:space="preserve">  periodEndTime datetime  NOT NULL  COMMENT 'End time of this period. Participant sessions will be allowed when the current time is &lt; this time. A time of 0 = the session runs forever.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1289</v>
       </c>
@@ -5958,7 +5997,7 @@
         <v xml:space="preserve">  periodAnnouncementText longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Recruitment email text sent to periodEmailList when study opens.',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1290</v>
       </c>
@@ -5980,7 +6019,7 @@
         <v xml:space="preserve">  periodEmailList longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Comma-separated list of e-mail names',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1291</v>
       </c>
@@ -5999,7 +6038,7 @@
         <v xml:space="preserve">  periodTaskSequence enum('sequential','random')   DEFAULT 'random' COMMENT 'Specifies the task order of tasks marked as programmed.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1292</v>
       </c>
@@ -6018,7 +6057,7 @@
         <v xml:space="preserve">  periodStudyVariations enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'For now. Future options could include: singleSequential,mulitpleRandom, multipleSequential, etc.)',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="17" customFormat="1">
       <c r="A13" s="17" t="s">
         <v>1293</v>
       </c>
@@ -6042,7 +6081,7 @@
         <v xml:space="preserve">  periodTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Defaults to study timezone value',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="13" customFormat="1">
       <c r="A14" s="13" t="s">
         <v>1270</v>
       </c>
@@ -6061,7 +6100,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="13" customFormat="1">
       <c r="A15" s="13" t="s">
         <v>1271</v>
       </c>
@@ -6078,8 +6117,29 @@
         <v>1399</v>
       </c>
       <c r="H15" s="13" t="str">
-        <f t="shared" ref="H15" si="1">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
+        <f t="shared" ref="H15:H16" si="1">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1">
+      <c r="A16" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -6095,40 +6155,40 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H2:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6151,7 +6211,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1358</v>
       </c>
@@ -6175,7 +6235,7 @@
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6197,7 +6257,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study to which this step belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1382</v>
       </c>
@@ -6219,7 +6279,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL  COMMENT 'Step sequence',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>1373</v>
       </c>
@@ -6241,7 +6301,7 @@
         <v xml:space="preserve">  preTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>1374</v>
       </c>
@@ -6263,7 +6323,7 @@
         <v xml:space="preserve">  preTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the pre-task page',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>1375</v>
       </c>
@@ -6285,7 +6345,7 @@
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>1376</v>
       </c>
@@ -6307,7 +6367,7 @@
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1248</v>
       </c>
@@ -6326,7 +6386,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT NULL COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1250</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v xml:space="preserve">  taskBarCssPath varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1378</v>
       </c>
@@ -6370,7 +6430,7 @@
         <v xml:space="preserve">  taskBarHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1251</v>
       </c>
@@ -6392,7 +6452,7 @@
         <v xml:space="preserve">  exitButtonText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6414,7 +6474,7 @@
         <v xml:space="preserve">  tabShowText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6496,7 @@
         <v xml:space="preserve">  tabHideText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1377</v>
       </c>
@@ -6458,7 +6518,7 @@
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1379</v>
       </c>
@@ -6480,7 +6540,7 @@
         <v xml:space="preserve">  postTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1380</v>
       </c>
@@ -6502,7 +6562,7 @@
         <v xml:space="preserve">  postTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the post-task page',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
         <v>1385</v>
       </c>
@@ -6524,7 +6584,7 @@
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="17" t="s">
         <v>1270</v>
       </c>
@@ -6543,7 +6603,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="17" customFormat="1">
       <c r="A20" s="17" t="s">
         <v>1271</v>
       </c>
@@ -6560,8 +6620,29 @@
         <v>1399</v>
       </c>
       <c r="H20" s="17" t="str">
-        <f t="shared" ref="H20" si="1">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
+        <f t="shared" ref="H20:H21" si="1">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="17" customFormat="1">
+      <c r="A21" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -6577,23 +6658,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="107.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="107.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6697,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1279</v>
       </c>
@@ -6640,7 +6721,7 @@
         <v xml:space="preserve">  studyVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1371</v>
       </c>
@@ -6662,7 +6743,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL  COMMENT 'ID of the study variable to which this variation applies',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1224</v>
       </c>
@@ -6684,7 +6765,7 @@
         <v xml:space="preserve">  variationName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Human-readable name of this variation',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>1372</v>
       </c>
@@ -6706,7 +6787,7 @@
         <v xml:space="preserve">  variationDesc longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free-form description of this variation',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1228</v>
       </c>
@@ -6725,7 +6806,7 @@
         <v xml:space="preserve">  variationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Just these for now, we can support "other" in the future)',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1229</v>
       </c>
@@ -6747,7 +6828,7 @@
         <v xml:space="preserve">  variationCssPath varchar(1024) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path from the selected root to the CSS file that defines the variation. This should probably be validated in the UI…',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>1270</v>
       </c>
@@ -6766,7 +6847,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="17" customFormat="1">
       <c r="A9" s="17" t="s">
         <v>1271</v>
       </c>
@@ -6783,8 +6864,29 @@
         <v>1399</v>
       </c>
       <c r="H9" s="17" t="str">
-        <f t="shared" ref="H9" si="1">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
+        <f t="shared" ref="H9:H10" si="1">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1">
+      <c r="A10" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -6799,23 +6901,23 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -6838,7 +6940,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1459</v>
       </c>
@@ -6862,7 +6964,7 @@
         <v xml:space="preserve">  studyMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6985,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1434</v>
       </c>
@@ -6904,7 +7006,7 @@
         <v xml:space="preserve">  measureId int(10) unsigned NOT NULL  COMMENT 'Relative index of this measure',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1233</v>
       </c>
@@ -6922,7 +7024,7 @@
         <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1235</v>
       </c>
@@ -6940,7 +7042,7 @@
         <v xml:space="preserve">  dataType enum('string','integer','float','date','time')  NOT NULL  COMMENT 'Data type returned by this variable',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1237</v>
       </c>
@@ -6961,7 +7063,7 @@
         <v xml:space="preserve">  displayUnits varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Units to display with this value (if any)',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1242</v>
       </c>
@@ -6979,7 +7081,7 @@
         <v xml:space="preserve">  computeBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -6997,7 +7099,7 @@
         <v xml:space="preserve">  displayBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="17" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7016,7 +7118,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7033,8 +7135,29 @@
         <v>1399</v>
       </c>
       <c r="H11" s="17" t="str">
-        <f t="shared" ref="H11" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
+        <f t="shared" ref="H11:H12" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="17" customFormat="1">
+      <c r="A12" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -7052,20 +7175,20 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" customWidth="1"/>
+    <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7088,7 +7211,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1371</v>
       </c>
@@ -7112,7 +7235,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7133,7 +7256,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Relation back to the study, defined in "study_general:studyId". A study can have from one to many variables.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1369</v>
       </c>
@@ -7154,7 +7277,7 @@
         <v xml:space="preserve">  variableName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this Independent Variable (e.g., "menu style" or "color scheme")',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="17" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7173,7 +7296,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7190,11 +7313,32 @@
         <v>1399</v>
       </c>
       <c r="H6" s="17" t="str">
-        <f t="shared" ref="H6" si="1">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
+        <f t="shared" ref="H6:H7" si="1">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="17" customFormat="1">
+      <c r="A7" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="E9" s="17" t="s">
         <v>1478</v>
       </c>
@@ -7211,23 +7355,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H2:H5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7250,7 +7394,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1359</v>
       </c>
@@ -7274,7 +7418,7 @@
         <v xml:space="preserve">  studyStepDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1358</v>
       </c>
@@ -7291,11 +7435,11 @@
         <v>1364</v>
       </c>
       <c r="H3" s="17" t="str">
-        <f t="shared" ref="H3:H5" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
+        <f t="shared" ref="H3:H6" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL  COMMENT 'ID of study step to which this record relates',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="13" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>1360</v>
       </c>
@@ -7314,7 +7458,7 @@
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1361</v>
       </c>
@@ -7333,6 +7477,27 @@
       <c r="H5" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  detailId bigint(20) unsigned NOT NULL  COMMENT 'ID in corresponding table',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1">
+      <c r="A6" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
     </row>
   </sheetData>
@@ -7349,16 +7514,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="15.140625" style="17"/>
+    <col min="5" max="5" width="15.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7546,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1296</v>
       </c>
@@ -7404,7 +7569,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7426,7 +7591,7 @@
         <v xml:space="preserve">  username varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Account user name',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1263</v>
       </c>
@@ -7448,7 +7613,7 @@
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account that created this account',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>1278</v>
       </c>
@@ -7469,7 +7634,7 @@
         <v xml:space="preserve">  acctPassword varchar(512) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'hashed/encrypted password value; empty = no password (default)',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7491,7 +7656,7 @@
         <v xml:space="preserve">  firstName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'First name',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -7512,7 +7677,7 @@
         <v xml:space="preserve">  lastName varchar(64) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Last name',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -7533,7 +7698,7 @@
         <v xml:space="preserve">  greetingName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Name used on personalized pages, defaults to first name if not provided.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -7554,7 +7719,7 @@
         <v xml:space="preserve">  orgName varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Organizational name',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7576,7 +7741,7 @@
         <v xml:space="preserve">  email varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Email of account contact',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1265</v>
       </c>
@@ -7595,7 +7760,7 @@
         <v xml:space="preserve">  accountType enum('admin','researcher','reviewer')   DEFAULT 'researcher' COMMENT 'for now this is how all accounts are defined',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7617,7 +7782,7 @@
         <v xml:space="preserve">  wluxUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The root of pages and files hosted on the WLUX server',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7639,7 +7804,7 @@
         <v xml:space="preserve">  clientUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The default root of the server being tested (this will serve as the default value to use when defining a study)',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1294</v>
       </c>
@@ -7661,7 +7826,7 @@
         <v xml:space="preserve">  userFileRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>1295</v>
       </c>
@@ -7683,7 +7848,7 @@
         <v xml:space="preserve">  userWebRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7707,7 +7872,7 @@
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="17" customFormat="1">
       <c r="A17" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7726,7 +7891,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="17" customFormat="1">
       <c r="A18" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7766,18 +7931,18 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>1183</v>
       </c>
@@ -7797,7 +7962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1184</v>
       </c>
@@ -7823,7 +7988,7 @@
         <v>'UTC+00 Europe/London',</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1185</v>
       </c>
@@ -7849,7 +8014,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin',</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>1186</v>
       </c>
@@ -7875,7 +8040,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev',</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>1187</v>
       </c>
@@ -7901,7 +8066,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh',</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>1188</v>
       </c>
@@ -7927,7 +8092,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran',</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>1189</v>
       </c>
@@ -7953,7 +8118,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow',</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>1190</v>
       </c>
@@ -7979,7 +8144,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul',</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>1191</v>
       </c>
@@ -8005,7 +8170,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives',</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>1192</v>
       </c>
@@ -8031,7 +8196,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta',</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>1193</v>
       </c>
@@ -8057,7 +8222,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu',</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>1194</v>
       </c>
@@ -8083,7 +8248,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos',</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>1195</v>
       </c>
@@ -8109,7 +8274,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon',</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>1196</v>
       </c>
@@ -8135,7 +8300,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok',</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>1197</v>
       </c>
@@ -8161,7 +8326,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei',</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>1198</v>
       </c>
@@ -8190,7 +8355,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla',</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>1199</v>
       </c>
@@ -8216,7 +8381,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo',</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>1200</v>
       </c>
@@ -8245,7 +8410,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide',</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>1201</v>
       </c>
@@ -8274,7 +8439,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne',</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>1202</v>
       </c>
@@ -8303,7 +8468,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe',</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>1203</v>
       </c>
@@ -8332,7 +8497,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei',</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8358,7 +8523,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk',</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>1205</v>
       </c>
@@ -8387,7 +8552,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka',</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>1206</v>
       </c>
@@ -8416,7 +8581,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham',</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>1207</v>
       </c>
@@ -8442,7 +8607,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu',</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>1208</v>
       </c>
@@ -8471,7 +8636,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati',</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>1209</v>
       </c>
@@ -8500,7 +8665,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund',</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>1210</v>
       </c>
@@ -8529,7 +8694,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands',</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>1211</v>
       </c>
@@ -8558,7 +8723,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza',</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>1212</v>
       </c>
@@ -8587,7 +8752,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland',</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>1213</v>
       </c>
@@ -8616,7 +8781,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax',</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>1214</v>
       </c>
@@ -8642,7 +8807,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas',</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>1215</v>
       </c>
@@ -8671,7 +8836,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York',</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>1216</v>
       </c>
@@ -8700,7 +8865,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago',</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>1217</v>
       </c>
@@ -8729,7 +8894,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver',</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>1218</v>
       </c>
@@ -8758,7 +8923,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles',</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>1219</v>
       </c>
@@ -8787,7 +8952,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage',</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>1220</v>
       </c>
@@ -8816,7 +8981,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas',</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>1221</v>
       </c>
@@ -8845,7 +9010,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak',</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>1222</v>
       </c>
@@ -8892,18 +9057,18 @@
       <selection activeCell="B211" sqref="B211:C211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -8926,7 +9091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE("UTC",LEFT(E2,3),IF(VALUE(RIGHT(E2,2))&gt;0,RIGHT(E2,3),""))</f>
         <v>UTC+00</v>
@@ -8944,7 +9109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8962,7 +9127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8980,7 +9145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -8998,7 +9163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9016,7 +9181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9034,7 +9199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9052,7 +9217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9070,7 +9235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9088,7 +9253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9106,7 +9271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9124,7 +9289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9142,7 +9307,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9160,7 +9325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9178,7 +9343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9196,7 +9361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9214,7 +9379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9235,7 +9400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9256,7 +9421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9274,7 +9439,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9292,7 +9457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9313,7 +9478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9331,7 +9496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9349,7 +9514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9367,7 +9532,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9385,7 +9550,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9403,7 +9568,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9421,7 +9586,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9439,7 +9604,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9457,7 +9622,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9475,7 +9640,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9493,7 +9658,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9511,7 +9676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9532,7 +9697,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9553,7 +9718,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9574,7 +9739,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9595,7 +9760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9613,7 +9778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9631,7 +9796,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9649,7 +9814,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9667,7 +9832,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9685,7 +9850,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9703,7 +9868,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9721,7 +9886,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9739,7 +9904,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9757,7 +9922,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9775,7 +9940,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9793,7 +9958,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9811,7 +9976,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9826,7 +9991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9841,7 +10006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9859,7 +10024,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9877,7 +10042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9895,7 +10060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9913,7 +10078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9934,7 +10099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9952,7 +10117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9973,7 +10138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -9991,7 +10156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10009,7 +10174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10027,7 +10192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10045,7 +10210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10063,7 +10228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10081,7 +10246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10099,7 +10264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE("UTC",LEFT(E66,3),IF(VALUE(RIGHT(E66,2))&gt;0,RIGHT(E66,3),""))</f>
         <v>UTC+01</v>
@@ -10117,7 +10282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10135,7 +10300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10156,7 +10321,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10174,7 +10339,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10189,7 +10354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10207,7 +10372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10225,7 +10390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10243,7 +10408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10264,7 +10429,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10285,7 +10450,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10303,7 +10468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10321,7 +10486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10339,7 +10504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10357,7 +10522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10378,7 +10543,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10396,7 +10561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10417,7 +10582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10435,7 +10600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10453,7 +10618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10471,7 +10636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10489,7 +10654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10510,7 +10675,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10528,7 +10693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10546,7 +10711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10567,7 +10732,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10588,7 +10753,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10609,7 +10774,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10627,7 +10792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10645,7 +10810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10663,7 +10828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10684,7 +10849,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10702,7 +10867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10720,7 +10885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10741,7 +10906,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10759,7 +10924,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10774,7 +10939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10792,7 +10957,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10810,7 +10975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10828,7 +10993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10849,7 +11014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10867,7 +11032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10885,7 +11050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10903,7 +11068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10921,7 +11086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10942,7 +11107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10960,7 +11125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10978,7 +11143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10996,7 +11161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11014,7 +11179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11032,7 +11197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11050,7 +11215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11068,7 +11233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11086,7 +11251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11107,7 +11272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11128,7 +11293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11146,7 +11311,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11164,7 +11329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11182,7 +11347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11200,7 +11365,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11215,7 +11380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11233,7 +11398,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11251,7 +11416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11269,7 +11434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11287,7 +11452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE("UTC",LEFT(E130,3),IF(VALUE(RIGHT(E130,2))&gt;0,RIGHT(E130,3),""))</f>
         <v>UTC+02</v>
@@ -11305,7 +11470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11323,7 +11488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11344,7 +11509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11365,7 +11530,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11383,7 +11548,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11401,7 +11566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11422,7 +11587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11440,7 +11605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11458,7 +11623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11476,7 +11641,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11497,7 +11662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11515,7 +11680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11536,7 +11701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11554,7 +11719,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11572,7 +11737,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11590,7 +11755,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11608,7 +11773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11626,7 +11791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11644,7 +11809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11662,7 +11827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11680,7 +11845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11698,7 +11863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11716,7 +11881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11734,7 +11899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11752,7 +11917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11770,7 +11935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11791,7 +11956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11809,7 +11974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11827,7 +11992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11845,7 +12010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11863,7 +12028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11881,7 +12046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11899,7 +12064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11920,7 +12085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11938,7 +12103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11956,7 +12121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11974,7 +12139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11992,7 +12157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -12010,7 +12175,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -12028,7 +12193,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12046,7 +12211,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12064,7 +12229,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12082,7 +12247,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12100,7 +12265,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12118,7 +12283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12139,7 +12304,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12160,7 +12325,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12181,7 +12346,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12199,7 +12364,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12217,7 +12382,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12235,7 +12400,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12253,7 +12418,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04:30</v>
@@ -12271,7 +12436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12292,7 +12457,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12313,7 +12478,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12334,7 +12499,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12355,7 +12520,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12373,7 +12538,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12391,7 +12556,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12409,7 +12574,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12427,7 +12592,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12448,7 +12613,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12469,7 +12634,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12490,7 +12655,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">CONCATENATE("UTC",LEFT(E194,3),IF(VALUE(RIGHT(E194,2))&gt;0,RIGHT(E194,3),""))</f>
         <v>UTC+05</v>
@@ -12508,7 +12673,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05</v>
@@ -12526,7 +12691,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12544,7 +12709,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12562,7 +12727,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12583,7 +12748,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -12601,7 +12766,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -12619,7 +12784,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12640,7 +12805,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12661,7 +12826,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12679,7 +12844,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12697,7 +12862,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12715,7 +12880,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12736,7 +12901,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12754,7 +12919,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12772,7 +12937,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12793,7 +12958,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12811,7 +12976,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -12829,7 +12994,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -12847,7 +13012,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12865,7 +13030,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12883,7 +13048,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12904,7 +13069,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12925,7 +13090,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12946,7 +13111,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12967,7 +13132,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -12988,7 +13153,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13006,7 +13171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13027,7 +13192,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13045,7 +13210,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13063,7 +13228,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13081,7 +13246,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13099,7 +13264,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13120,7 +13285,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13144,7 +13309,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13162,7 +13327,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13186,7 +13351,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13204,7 +13369,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13228,7 +13393,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13249,7 +13414,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13270,7 +13435,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13291,7 +13456,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13309,7 +13474,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13327,7 +13492,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13348,7 +13513,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13366,7 +13531,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13390,7 +13555,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13408,7 +13573,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13426,7 +13591,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13444,7 +13609,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13465,7 +13630,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13483,7 +13648,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13507,7 +13672,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13528,7 +13693,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13546,7 +13711,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13564,7 +13729,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13582,7 +13747,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13600,7 +13765,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13618,7 +13783,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08:45</v>
@@ -13639,7 +13804,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13657,7 +13822,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13678,7 +13843,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13699,7 +13864,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13717,7 +13882,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13735,7 +13900,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A321" si="4">CONCATENATE("UTC",LEFT(E258,3),IF(VALUE(RIGHT(E258,2))&gt;0,RIGHT(E258,3),""))</f>
         <v>UTC+09</v>
@@ -13753,7 +13918,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13771,7 +13936,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13789,7 +13954,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13807,7 +13972,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13825,7 +13990,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13846,7 +14011,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13867,7 +14032,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13888,7 +14053,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13906,7 +14071,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13924,7 +14089,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -13942,7 +14107,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13963,7 +14128,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -13984,7 +14149,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14002,7 +14167,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14023,7 +14188,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14041,7 +14206,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14062,7 +14227,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14083,7 +14248,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14104,7 +14269,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14125,7 +14290,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14143,7 +14308,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14161,7 +14326,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14182,7 +14347,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14200,7 +14365,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14218,7 +14383,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14239,7 +14404,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14257,7 +14422,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14275,7 +14440,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14293,7 +14458,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14311,7 +14476,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14329,7 +14494,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -14347,7 +14512,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -14368,7 +14533,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14389,7 +14554,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14410,7 +14575,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14431,7 +14596,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14452,7 +14617,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14470,7 +14635,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14488,7 +14653,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14509,7 +14674,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14527,7 +14692,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14548,7 +14713,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14566,7 +14731,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11:30</v>
@@ -14584,7 +14749,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14605,7 +14770,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14629,7 +14794,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14650,7 +14815,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14671,7 +14836,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14692,7 +14857,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14710,7 +14875,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14728,7 +14893,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14749,7 +14914,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14767,7 +14932,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14785,7 +14950,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14806,7 +14971,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14827,7 +14992,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14845,7 +15010,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14866,7 +15031,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14887,7 +15052,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14905,7 +15070,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -14923,7 +15088,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -14944,7 +15109,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -14962,7 +15127,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -14983,7 +15148,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="str">
         <f t="shared" ref="A322:A385" si="5">CONCATENATE("UTC",LEFT(E322,3),IF(VALUE(RIGHT(E322,2))&gt;0,RIGHT(E322,3),""))</f>
         <v>UTC+13</v>
@@ -15001,7 +15166,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" t="str">
         <f t="shared" si="5"/>
         <v>UTC+13</v>
@@ -15019,7 +15184,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v>UTC+14</v>
@@ -15040,7 +15205,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15061,7 +15226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15082,7 +15247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15100,7 +15265,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15121,7 +15286,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15139,7 +15304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15157,7 +15322,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15178,7 +15343,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15199,7 +15364,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15220,7 +15385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15238,7 +15403,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15259,7 +15424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15280,7 +15445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15301,7 +15466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15322,7 +15487,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15343,7 +15508,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15364,7 +15529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15385,7 +15550,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15406,7 +15571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15427,7 +15592,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15448,7 +15613,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15469,7 +15634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15490,7 +15655,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15508,7 +15673,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15526,7 +15691,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15544,7 +15709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15562,7 +15727,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15583,7 +15748,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15604,7 +15769,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15622,7 +15787,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15643,7 +15808,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15661,7 +15826,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15679,7 +15844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15697,7 +15862,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15715,7 +15880,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15736,7 +15901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15754,7 +15919,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15775,7 +15940,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15796,7 +15961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15817,7 +15982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15835,7 +16000,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15853,7 +16018,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -15874,7 +16039,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -15892,7 +16057,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15910,7 +16075,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15928,7 +16093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15946,7 +16111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15964,7 +16129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -15982,7 +16147,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16003,7 +16168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16024,7 +16189,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16045,7 +16210,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16066,7 +16231,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16084,7 +16249,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16102,7 +16267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16123,7 +16288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16144,7 +16309,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16165,7 +16330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16183,7 +16348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16201,7 +16366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16219,7 +16384,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16240,7 +16405,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="str">
         <f t="shared" ref="A386:A449" si="6">CONCATENATE("UTC",LEFT(E386,3),IF(VALUE(RIGHT(E386,2))&gt;0,RIGHT(E386,3),""))</f>
         <v>UTC−04</v>
@@ -16261,7 +16426,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16279,7 +16444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16300,7 +16465,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16321,7 +16486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16342,7 +16507,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16360,7 +16525,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16381,7 +16546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16399,7 +16564,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16417,7 +16582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16438,7 +16603,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16456,7 +16621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16477,7 +16642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16495,7 +16660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16516,7 +16681,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16534,7 +16699,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16552,7 +16717,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16570,7 +16735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16588,7 +16753,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16609,7 +16774,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16627,7 +16792,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16645,7 +16810,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16666,7 +16831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16684,7 +16849,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16702,7 +16867,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16720,7 +16885,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16738,7 +16903,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04:30</v>
@@ -16756,7 +16921,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16777,7 +16942,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16795,7 +16960,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16813,7 +16978,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16831,7 +16996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16852,7 +17017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16870,7 +17035,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16888,7 +17053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16909,7 +17074,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16927,7 +17092,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16948,7 +17113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16969,7 +17134,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16990,7 +17155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17011,7 +17176,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17032,7 +17197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17053,7 +17218,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17071,7 +17236,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17092,7 +17257,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17110,7 +17275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17131,7 +17296,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17152,7 +17317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17170,7 +17335,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17188,7 +17353,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17209,7 +17374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17227,7 +17392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17248,7 +17413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17269,7 +17434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17287,7 +17452,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17308,7 +17473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17326,7 +17491,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17341,7 +17506,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17359,7 +17524,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17380,7 +17545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17401,7 +17566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17416,7 +17581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17434,7 +17599,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17452,7 +17617,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17467,7 +17632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" t="str">
         <f t="shared" ref="A450:A513" si="7">CONCATENATE("UTC",LEFT(E450,3),IF(VALUE(RIGHT(E450,2))&gt;0,RIGHT(E450,3),""))</f>
         <v>UTC−05</v>
@@ -17482,7 +17647,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17500,7 +17665,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17518,7 +17683,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17536,7 +17701,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17554,7 +17719,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17575,7 +17740,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17593,7 +17758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17614,7 +17779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17635,7 +17800,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17653,7 +17818,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17671,7 +17836,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17689,7 +17854,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17710,7 +17875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17731,7 +17896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17749,7 +17914,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6">
       <c r="A465" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17767,7 +17932,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6">
       <c r="A466" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17788,7 +17953,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6">
       <c r="A467" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17809,7 +17974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6">
       <c r="A468" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17830,7 +17995,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6">
       <c r="A469" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17851,7 +18016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6">
       <c r="A470" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17872,7 +18037,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6">
       <c r="A471" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17893,7 +18058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6">
       <c r="A472" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17914,7 +18079,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6">
       <c r="A473" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17935,7 +18100,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6">
       <c r="A474" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17956,7 +18121,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6">
       <c r="A475" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17977,7 +18142,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6">
       <c r="A476" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17998,7 +18163,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6">
       <c r="A477" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18019,7 +18184,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6">
       <c r="A478" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18040,7 +18205,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6">
       <c r="A479" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18058,7 +18223,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6">
       <c r="A480" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18079,7 +18244,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18097,7 +18262,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18115,7 +18280,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18133,7 +18298,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18151,7 +18316,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18166,7 +18331,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18184,7 +18349,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18205,7 +18370,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18226,7 +18391,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18244,7 +18409,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18262,7 +18427,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18283,7 +18448,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18304,7 +18469,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18325,7 +18490,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18346,7 +18511,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18367,7 +18532,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18388,7 +18553,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18409,7 +18574,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18430,7 +18595,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18451,7 +18616,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18472,7 +18637,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18493,7 +18658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18514,7 +18679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18538,7 +18703,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18559,7 +18724,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18577,7 +18742,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18595,7 +18760,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18610,7 +18775,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18625,7 +18790,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18643,7 +18808,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18661,7 +18826,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18679,7 +18844,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -18700,7 +18865,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -18718,7 +18883,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" t="str">
         <f t="shared" ref="A514:A549" si="8">CONCATENATE("UTC",LEFT(E514,3),IF(VALUE(RIGHT(E514,2))&gt;0,RIGHT(E514,3),""))</f>
         <v>UTC−08</v>
@@ -18739,7 +18904,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18760,7 +18925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18781,7 +18946,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18802,7 +18967,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18823,7 +18988,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18844,7 +19009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18862,7 +19027,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18880,7 +19045,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18898,7 +19063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18916,7 +19081,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18931,7 +19096,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18949,7 +19114,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18967,7 +19132,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -18985,7 +19150,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19006,7 +19171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19027,7 +19192,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19048,7 +19213,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19069,7 +19234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19090,7 +19255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19111,7 +19276,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19129,7 +19294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09:30</v>
@@ -19150,7 +19315,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19171,7 +19336,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19189,7 +19354,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19204,7 +19369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19225,7 +19390,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19246,7 +19411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19264,7 +19429,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19285,7 +19450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19303,7 +19468,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19321,7 +19486,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19342,7 +19507,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19360,7 +19525,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19378,7 +19543,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19396,7 +19561,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19431,20 +19596,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H2:H6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -19467,7 +19632,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1303</v>
       </c>
@@ -19491,7 +19656,7 @@
         <v xml:space="preserve">  debugId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1260</v>
       </c>
@@ -19513,7 +19678,7 @@
         <v xml:space="preserve">  moduleName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Module to which this setting applies.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1276</v>
       </c>
@@ -19535,7 +19700,7 @@
         <v xml:space="preserve">  methodName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Method to which this setting applies.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1261</v>
       </c>
@@ -19556,7 +19721,7 @@
         <v xml:space="preserve">  returnDbgData tinyint(1)  NOT NULL  DEFAULT '0' COMMENT 'When TRUE, the specified module and method should return a debug data structure in the repsonse.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1262</v>
       </c>
@@ -19596,20 +19761,20 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="13"/>
-    <col min="8" max="8" width="109.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="109.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -19632,7 +19797,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>1402</v>
       </c>
@@ -19656,7 +19821,7 @@
         <v xml:space="preserve">  studyConfigDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>1334</v>
       </c>
@@ -19677,7 +19842,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL  COMMENT 'ID of study config record to which this record relates',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
         <v>1360</v>
       </c>
@@ -19695,7 +19860,7 @@
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
         <v>1361</v>
       </c>
@@ -19716,15 +19881,15 @@
         <v xml:space="preserve">  detailId bigint(20) unsigned NOT NULL  COMMENT 'ID in corresponding table',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" s="2" customFormat="1"/>
+    <row r="11" spans="1:8" s="2" customFormat="1"/>
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="36">
       <c r="A12" s="21" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="2" customFormat="1"/>
+    <row r="14" spans="1:8" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19743,12 +19908,12 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -19765,7 +19930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19779,7 +19944,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19793,7 +19958,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -19810,7 +19975,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1232</v>
       </c>
@@ -19824,7 +19989,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1233</v>
       </c>
@@ -19838,7 +20003,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1235</v>
       </c>
@@ -19852,7 +20017,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1237</v>
       </c>
@@ -19869,7 +20034,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1242</v>
       </c>
@@ -19880,7 +20045,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -19891,7 +20056,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1270</v>
       </c>
@@ -19905,7 +20070,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1271</v>
       </c>
@@ -19919,15 +20084,15 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" s="2" customFormat="1"/>
+    <row r="16" spans="1:5" s="2" customFormat="1"/>
+    <row r="17" spans="1:1" s="21" customFormat="1" ht="36">
       <c r="A17" s="21" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" s="2" customFormat="1"/>
+    <row r="19" spans="1:1" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19946,18 +20111,18 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="156.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="156.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="17" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -19980,7 +20145,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1304</v>
       </c>
@@ -20004,7 +20169,7 @@
         <v xml:space="preserve">  gratuityLogId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20026,7 +20191,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL   COMMENT 'ID of study to which this gratuity entry belongs.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -20048,7 +20213,7 @@
         <v xml:space="preserve">  periodName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Name of study period in the study identified by studyId to which this entry belongs.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -20069,7 +20234,7 @@
         <v xml:space="preserve">  email varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Email address entered by the participant.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -20090,7 +20255,7 @@
         <v xml:space="preserve">  comments varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Comments entered by the participant.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="17" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>1270</v>
       </c>
@@ -20109,7 +20274,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>1271</v>
       </c>
@@ -20149,18 +20314,18 @@
       <selection activeCell="H14" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" customWidth="1"/>
-    <col min="8" max="8" width="192.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" customWidth="1"/>
+    <col min="8" max="8" width="192.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="17" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -20183,7 +20348,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1297</v>
       </c>
@@ -20207,7 +20372,7 @@
         <v xml:space="preserve">  logTransitionId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -20229,7 +20394,7 @@
         <v xml:space="preserve">  serverTimestamp timestamp  NOT NULL  DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'Time read from server that the activity took place. Stored in server time zone.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -20250,7 +20415,7 @@
         <v xml:space="preserve">  clientTimestamp bigint(20) unsigned  DEFAULT NULL COMMENT 'The timestamp information provided by the client site. Treated as a number. If NULL or 0, the serverTimestamp field is used for timing activities.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -20272,7 +20437,7 @@
         <v xml:space="preserve">  recordType enum('open','transition')  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'The type of log record. Possible values are: "open" - records page loads; "transition" - records navigation activity.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20294,7 +20459,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL   COMMENT 'The participant session in which the activity occured.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
         <v>1334</v>
       </c>
@@ -20316,7 +20481,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL   COMMENT 'The study config record in use when the activity ocurred.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1382</v>
       </c>
@@ -20338,7 +20503,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL   COMMENT 'The index of the protocol step in which the activity ocurred.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1280</v>
       </c>
@@ -20360,7 +20525,7 @@
         <v xml:space="preserve">  taskVariationId int(10) unsigned NOT NULL   COMMENT 'RESERVED',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -20381,7 +20546,7 @@
         <v xml:space="preserve">  fromUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of page with link that was opened or clicked',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -20402,7 +20567,7 @@
         <v xml:space="preserve">  toUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of link destination',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -20423,7 +20588,7 @@
         <v xml:space="preserve">  linkClass varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'class attribute of link',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -20444,7 +20609,7 @@
         <v xml:space="preserve">  linkId varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'ID attribute of link',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -20481,21 +20646,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="67.42578125" customWidth="1"/>
-    <col min="8" max="8" width="155.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="67.5" customWidth="1"/>
+    <col min="8" max="8" width="155.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -20518,7 +20683,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -20542,7 +20707,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record and study session ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20564,7 +20729,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'ID of study that defined this participant session',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -20583,7 +20748,7 @@
         <v xml:space="preserve">  startTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation began.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -20602,7 +20767,7 @@
         <v xml:space="preserve">  endTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation ended.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="17" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>1270</v>
       </c>
@@ -20621,7 +20786,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="17" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>1271</v>
       </c>
@@ -20661,33 +20826,33 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -20710,7 +20875,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1334</v>
       </c>
@@ -20734,7 +20899,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -20758,7 +20923,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -20782,7 +20947,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of study that defined this session',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>1358</v>
       </c>
@@ -20806,7 +20971,7 @@
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of the study step configuration that this record references',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>1382</v>
       </c>
@@ -20830,7 +20995,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL DEFAULT '0'  COMMENT 'Step sequence',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>1373</v>
       </c>
@@ -20852,7 +21017,7 @@
         <v xml:space="preserve">  preTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>1374</v>
       </c>
@@ -20874,7 +21039,7 @@
         <v xml:space="preserve">  preTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the pre-task page',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="13" customFormat="1">
       <c r="A9" s="13" t="s">
         <v>1375</v>
       </c>
@@ -20896,7 +21061,7 @@
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="17" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>1461</v>
       </c>
@@ -20914,7 +21079,7 @@
         <v xml:space="preserve">  preTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask began',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>1460</v>
       </c>
@@ -20932,7 +21097,7 @@
         <v xml:space="preserve">  preTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask ended',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>1376</v>
       </c>
@@ -20954,7 +21119,7 @@
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="13" customFormat="1">
       <c r="A13" s="13" t="s">
         <v>1248</v>
       </c>
@@ -20973,7 +21138,7 @@
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="13" customFormat="1">
       <c r="A14" s="13" t="s">
         <v>1250</v>
       </c>
@@ -20995,7 +21160,7 @@
         <v xml:space="preserve">  taskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="13" customFormat="1">
       <c r="A15" s="13" t="s">
         <v>1378</v>
       </c>
@@ -21017,7 +21182,7 @@
         <v xml:space="preserve">  taskBarHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
         <v>1251</v>
       </c>
@@ -21039,7 +21204,7 @@
         <v xml:space="preserve">  exitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="13" customFormat="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -21061,7 +21226,7 @@
         <v xml:space="preserve">  tabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
@@ -21083,7 +21248,7 @@
         <v xml:space="preserve">  tabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="13" customFormat="1">
       <c r="A19" s="13" t="s">
         <v>1377</v>
       </c>
@@ -21105,7 +21270,7 @@
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="17" customFormat="1">
       <c r="A20" s="17" t="s">
         <v>1470</v>
       </c>
@@ -21123,7 +21288,7 @@
         <v xml:space="preserve">  studyTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task began.',</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="17" customFormat="1">
       <c r="A21" s="17" t="s">
         <v>1471</v>
       </c>
@@ -21141,7 +21306,7 @@
         <v xml:space="preserve">  studyTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task ended.',</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
         <v>1379</v>
       </c>
@@ -21163,7 +21328,7 @@
         <v xml:space="preserve">  postTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
         <v>1380</v>
       </c>
@@ -21185,7 +21350,7 @@
         <v xml:space="preserve">  postTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the post-task page',</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="13" customFormat="1">
       <c r="A24" s="13" t="s">
         <v>1385</v>
       </c>
@@ -21207,7 +21372,7 @@
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="17" customFormat="1">
       <c r="A25" s="17" t="s">
         <v>1462</v>
       </c>
@@ -21225,7 +21390,7 @@
         <v xml:space="preserve">  postTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask began.',</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22" t="s">
         <v>1463</v>
       </c>
@@ -21243,7 +21408,7 @@
         <v xml:space="preserve">  postTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask ended',</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>1270</v>
       </c>
@@ -21262,7 +21427,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>1271</v>
       </c>
@@ -21283,35 +21448,35 @@
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29" s="3"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="D30" s="1"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31" s="3"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="D32" s="3"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0">
+    <row r="33" spans="4:5">
       <c r="D33" s="3"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0">
+    <row r="34" spans="4:5">
       <c r="D34" s="3"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5">
       <c r="D35" s="3"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5">
       <c r="D36" s="1"/>
       <c r="E36" s="14"/>
     </row>
@@ -21330,22 +21495,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="107.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="107.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -21368,7 +21533,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>1474</v>
       </c>
@@ -21392,7 +21557,7 @@
         <v xml:space="preserve">  sessionVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -21416,7 +21581,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -21437,7 +21602,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
         <v>1371</v>
       </c>
@@ -21459,7 +21624,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL  COMMENT 'ID of the study variable to which this variation applies',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>1224</v>
       </c>
@@ -21481,7 +21646,7 @@
         <v xml:space="preserve">  variationName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Human-readable name of this variation',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>1372</v>
       </c>
@@ -21503,7 +21668,7 @@
         <v xml:space="preserve">  variationDesc longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free-form description of this variation',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>1228</v>
       </c>
@@ -21522,7 +21687,7 @@
         <v xml:space="preserve">  variationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Just these for now, we can support "other" in the future)',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>1229</v>
       </c>
@@ -21544,7 +21709,7 @@
         <v xml:space="preserve">  variationCssPath varchar(1024) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path from the selected root to the CSS file that defines the variation. This should probably be validated in the UI…',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>1270</v>
       </c>
@@ -21563,7 +21728,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
         <v>1271</v>
       </c>
@@ -21586,6 +21751,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21597,18 +21767,18 @@
       <selection activeCell="A4" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="17"/>
+    <col min="6" max="6" width="80.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -21631,7 +21801,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>1475</v>
       </c>
@@ -21655,7 +21825,7 @@
         <v xml:space="preserve">  sessionMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -21679,7 +21849,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -21700,7 +21870,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
         <v>1434</v>
       </c>
@@ -21721,7 +21891,7 @@
         <v xml:space="preserve">  measureId int(10) unsigned NOT NULL  COMMENT 'Relative index of this measure',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>1233</v>
       </c>
@@ -21739,7 +21909,7 @@
         <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>1235</v>
       </c>
@@ -21757,7 +21927,7 @@
         <v xml:space="preserve">  dataType enum('string','integer','float','date','time')  NOT NULL  COMMENT 'Data type returned by this variable',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>1237</v>
       </c>
@@ -21778,7 +21948,7 @@
         <v xml:space="preserve">  displayUnits varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Units to display with this value (if any)',</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>1242</v>
       </c>
@@ -21796,7 +21966,7 @@
         <v xml:space="preserve">  computeBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>1243</v>
       </c>
@@ -21814,7 +21984,7 @@
         <v xml:space="preserve">  displayBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
         <v>1270</v>
       </c>
@@ -21833,7 +22003,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="17" t="s">
         <v>1271</v>
       </c>
@@ -21856,6 +22026,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21867,18 +22042,18 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="17"/>
+    <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -21901,7 +22076,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>1371</v>
       </c>
@@ -21925,7 +22100,7 @@
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -21949,7 +22124,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -21970,7 +22145,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Relation back to the study, defined in "study_general:studyId". A study can have from one to many variables.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
         <v>1369</v>
       </c>
@@ -21991,7 +22166,7 @@
         <v xml:space="preserve">  variableName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this Independent Variable (e.g., "menu style" or "color scheme")',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
         <v>1270</v>
       </c>
@@ -22010,7 +22185,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>1271</v>
       </c>
@@ -22033,5 +22208,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
+++ b/documentation/WLUX_BackEnd_DataDef_Winter2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="848" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="848" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="error messages" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AllTimeZones!$B$1:$G$549</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1481">
   <si>
     <t>recordSeq</t>
   </si>
@@ -4415,9 +4415,6 @@
     <t>DEFAULT 'researcher'</t>
   </si>
   <si>
-    <t xml:space="preserve">type </t>
-  </si>
-  <si>
     <t>Just to name a few... Each ENUM will have its own computation and validation algorithm</t>
   </si>
   <si>
@@ -4478,13 +4475,16 @@
     <t>ID of the study step configuration that this record references</t>
   </si>
   <si>
-    <t>Thi</t>
-  </si>
-  <si>
     <t>deleted</t>
   </si>
   <si>
     <t>When true, the record is no longer available to users or computations</t>
+  </si>
+  <si>
+    <t>JSON mockup</t>
+  </si>
+  <si>
+    <t>enum('task','participant','session','period','study')</t>
   </si>
 </sst>
 </file>
@@ -5067,18 +5067,18 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
     <col min="8" max="8" width="188" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1298</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v xml:space="preserve">  errorMessageId int(10) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique message ID. Used only to identify the record in the table',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1299</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v xml:space="preserve">  errorStatus int(10) unsigned NOT NULL  COMMENT 'HTTP error response status value',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1300</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v xml:space="preserve">  messageVariation int(10) unsigned NOT NULL  COMMENT 'Variation of message. Supports multiple error messages for a single errorStatus value to provide more descriptive messages in specific situations.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1301</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v xml:space="preserve">  messageLanguage char(8)  COLLATE utf8_unicode_ci  NOT NULL  COMMENT 'Language code of the message text language.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1302</v>
       </c>
@@ -5226,22 +5226,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -5263,8 +5268,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5287,8 +5295,12 @@
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique ID of a study configuration',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1263</v>
       </c>
@@ -5309,8 +5321,12 @@
         <f t="shared" ref="H3:H25" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account to which the study belongs. The value is the user_accounts:accountId of the owner.',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J25" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"ownerId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5331,8 +5347,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyName varchar(127)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'The human-readable name of the study.',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyName": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -5353,8 +5373,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyDescription longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Free text description of the study.',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyDescription": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5375,8 +5399,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  researcherOrg varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Organization name listed as contact info for the researcher who is the primary (public) contact for this study.',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"researcherOrg": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -5397,8 +5425,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  researcherFirstName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'First name for researcher who is the primary (public) contact for this study.',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"researcherFirstName": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -5419,8 +5451,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  researcherLastName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Last name for the researcher who is the primary (public) contact for this study.',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"researcherLastName": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5441,8 +5477,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  researcherEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the researcher who is the primary (public) contact for this study.',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"researcherEmail": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>1416</v>
       </c>
@@ -5463,8 +5503,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  researcherAddress varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Mailing addres for the researcher who is the primary (public) contact for this study.',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"researcherAddress": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1417</v>
       </c>
@@ -5485,8 +5529,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ethicsBoardEmail varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Contact email for the ethics board / institutional review board who approved this studys procedures.',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="17" customFormat="1">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"ethicsBoardEmail": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>50</v>
       </c>
@@ -5509,8 +5557,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTimeZone": " ",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1245</v>
       </c>
@@ -5528,8 +5580,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultVariationMethod enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'Describes how IV levels are selected during a participant session.',</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultVariationMethod": " ",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1248</v>
       </c>
@@ -5547,8 +5603,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the task bar CSS.',</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTaskBarRoot": " ",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1249</v>
       </c>
@@ -5569,8 +5629,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTaskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the task bar CSS from the specified root path.',</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTaskBarCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1246</v>
       </c>
@@ -5588,8 +5652,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultVariationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'The URL root path to use for the variation CSS files.',</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultVariationRoot": " ",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1247</v>
       </c>
@@ -5610,8 +5678,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultVariationCssPath varchar(1024)  COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path to use for the variation CSS files from the specified root path.',</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultVariationCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1252</v>
       </c>
@@ -5632,8 +5704,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultExitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display on the button that ends the task on the client site and returns to the page desribed by the taskReturnUrl.',</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultExitButtonText": " ",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1253</v>
       </c>
@@ -5654,8 +5730,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display on the SHOW button of the the task bar displayed on the client site during a task.',</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTabShowText": " ",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1254</v>
       </c>
@@ -5676,8 +5756,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display on the HIDE button of the the task bar displayed on the client site during a task.',</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTabHideText": " ",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1259</v>
       </c>
@@ -5695,8 +5779,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  clientTimeStampFormat enum('default')   DEFAULT 'default' COMMENT 'The formula to use to interpret the client time stamp sent to the log_transition file.',</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"clientTimeStampFormat": " ",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1273</v>
       </c>
@@ -5714,8 +5802,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyStatus enum('draft','scheduled','completed','archived')   DEFAULT 'draft' COMMENT 'The current state of this study.',</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="13" customFormat="1">
+      <c r="J22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyStatus": " ",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>1270</v>
       </c>
@@ -5733,8 +5825,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="13" customFormat="1">
+      <c r="J23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>1271</v>
       </c>
@@ -5754,10 +5850,14 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B25" t="s">
         <v>1455</v>
@@ -5769,11 +5869,15 @@
         <v>1454</v>
       </c>
       <c r="F25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -5789,20 +5893,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="H16" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="1" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5824,8 +5928,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1357</v>
       </c>
@@ -5848,8 +5955,12 @@
         <f t="shared" ref="H2:H14" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyPeriodId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyPeriodId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5870,8 +5981,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study ID (study_general:studyId of the study to which this schedule period belongs. Study owner is defined by the study ID in the study_general table.',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J16" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -5892,8 +6007,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this study period.',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodName": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1285</v>
       </c>
@@ -5914,8 +6033,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodDescription longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free text field to describe the study period.',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodDescription": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1286</v>
       </c>
@@ -5936,8 +6059,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodParticipantLimit bigint(20) unsigned  DEFAULT NULL COMMENT 'The maximum number of participant sessions to accept during this study period. -1 = no limit. This is the total number of sessions to allow: completed and partial.',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodParticipantLimit": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1287</v>
       </c>
@@ -5955,8 +6082,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodStartTime datetime  NOT NULL  COMMENT 'Start time of this period. Participant sessions will be allowed when the current time is &gt; this time. A time of 0 = the session starts immediately.',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodStartTime": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1288</v>
       </c>
@@ -5974,8 +6105,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodEndTime datetime  NOT NULL  COMMENT 'End time of this period. Participant sessions will be allowed when the current time is &lt; this time. A time of 0 = the session runs forever.',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodEndTime": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1289</v>
       </c>
@@ -5996,8 +6131,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodAnnouncementText longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Recruitment email text sent to periodEmailList when study opens.',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodAnnouncementText": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1290</v>
       </c>
@@ -6018,8 +6157,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodEmailList longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Comma-separated list of e-mail names',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodEmailList": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1291</v>
       </c>
@@ -6037,8 +6180,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodTaskSequence enum('sequential','random')   DEFAULT 'random' COMMENT 'Specifies the task order of tasks marked as programmed.',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodTaskSequence": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1292</v>
       </c>
@@ -6056,8 +6203,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodStudyVariations enum('singleRandom')   DEFAULT 'singleRandom' COMMENT 'For now. Future options could include: singleSequential,mulitpleRandom, multipleSequential, etc.)',</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="17" customFormat="1">
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodStudyVariations": " ",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1293</v>
       </c>
@@ -6080,8 +6231,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  periodTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Defaults to study timezone value',</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1">
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"periodTimeZone": " ",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>1270</v>
       </c>
@@ -6099,8 +6254,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1">
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>1271</v>
       </c>
@@ -6117,13 +6276,17 @@
         <v>1399</v>
       </c>
       <c r="H15" s="13" t="str">
-        <f t="shared" ref="H15:H16" si="1">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
+        <f t="shared" ref="H15:H16" si="2">CONCATENATE("  ",A15," ", B15, " ", C15," ", D15," ",E15," COMMENT '",SUBSTITUTE(F15,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1">
+      <c r="J15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>1455</v>
@@ -6135,11 +6298,15 @@
         <v>1454</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H16" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -6155,40 +6322,40 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6210,8 +6377,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1358</v>
       </c>
@@ -6234,8 +6404,12 @@
         <f t="shared" ref="H2:H19" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyStepId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6256,8 +6430,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Study to which this step belongs',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J21" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1382</v>
       </c>
@@ -6278,8 +6456,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL  COMMENT 'Step sequence',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"stepIndex": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1373</v>
       </c>
@@ -6300,8 +6482,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>1374</v>
       </c>
@@ -6322,8 +6508,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the pre-task page',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageHtml": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1375</v>
       </c>
@@ -6344,8 +6534,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageNextUrl": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1376</v>
       </c>
@@ -6366,8 +6560,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1248</v>
       </c>
@@ -6385,8 +6583,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT NULL COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTaskBarRoot": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1250</v>
       </c>
@@ -6407,8 +6609,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  taskBarCssPath varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"taskBarCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1378</v>
       </c>
@@ -6429,8 +6635,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  taskBarHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"taskBarHtml": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1251</v>
       </c>
@@ -6451,8 +6661,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  exitButtonText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"exitButtonText": " ",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6473,8 +6687,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  tabShowText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"tabShowText": " ",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6495,8 +6713,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  tabHideText varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"tabHideText": " ",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1377</v>
       </c>
@@ -6517,8 +6739,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskReturnUrl": " ",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1379</v>
       </c>
@@ -6539,8 +6765,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1380</v>
       </c>
@@ -6561,8 +6791,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageHtml longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'HTML to show in the post-task page',</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="13" customFormat="1">
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageHtml": " ",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>1385</v>
       </c>
@@ -6583,8 +6817,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1">
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageNextUrl": " ",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1270</v>
       </c>
@@ -6602,8 +6840,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1">
+      <c r="J19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1271</v>
       </c>
@@ -6620,13 +6862,17 @@
         <v>1399</v>
       </c>
       <c r="H20" s="17" t="str">
-        <f t="shared" ref="H20:H21" si="1">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
+        <f t="shared" ref="H20:H21" si="2">CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1">
+      <c r="J20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>1455</v>
@@ -6638,11 +6884,15 @@
         <v>1454</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H21" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -6658,23 +6908,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="H10" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="107.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6696,8 +6946,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1279</v>
       </c>
@@ -6720,8 +6973,12 @@
         <f t="shared" ref="H2:H8" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyVariationId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1371</v>
       </c>
@@ -6742,8 +6999,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL  COMMENT 'ID of the study variable to which this variation applies',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J10" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyVariableId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1224</v>
       </c>
@@ -6764,8 +7025,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Human-readable name of this variation',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationName": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1372</v>
       </c>
@@ -6786,8 +7051,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationDesc longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free-form description of this variation',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationDesc": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1228</v>
       </c>
@@ -6805,8 +7074,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Just these for now, we can support "other" in the future)',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationRoot": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1229</v>
       </c>
@@ -6827,8 +7100,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationCssPath varchar(1024) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path from the selected root to the CSS file that defines the variation. This should probably be validated in the UI…',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1270</v>
       </c>
@@ -6846,8 +7123,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1271</v>
       </c>
@@ -6864,13 +7145,17 @@
         <v>1399</v>
       </c>
       <c r="H9" s="17" t="str">
-        <f t="shared" ref="H9:H10" si="1">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
+        <f t="shared" ref="H9:H10" si="2">CONCATENATE("  ",A9," ", B9, " ", C9," ", D9," ",E9," COMMENT '",SUBSTITUTE(F9,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>1455</v>
@@ -6882,11 +7167,15 @@
         <v>1454</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H10" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -6901,23 +7190,26 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -6939,10 +7231,13 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6963,8 +7258,12 @@
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyMeasureId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6984,8 +7283,12 @@
         <f t="shared" ref="H3:H10" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J12" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1434</v>
       </c>
@@ -7005,8 +7308,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  measureId int(10) unsigned NOT NULL  COMMENT 'Relative index of this measure',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"measureId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1233</v>
       </c>
@@ -7017,14 +7324,18 @@
         <v>1406</v>
       </c>
       <c r="F5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H5" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variableType": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1235</v>
       </c>
@@ -7041,8 +7352,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dataType enum('string','integer','float','date','time')  NOT NULL  COMMENT 'Data type returned by this variable',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dataType": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1237</v>
       </c>
@@ -7062,13 +7377,17 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  displayUnits varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Units to display with this value (if any)',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"displayUnits": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1242</v>
       </c>
       <c r="B8" t="s">
-        <v>1241</v>
+        <v>1480</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>1406</v>
@@ -7078,15 +7397,19 @@
       </c>
       <c r="H8" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  computeBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v xml:space="preserve">  computeBy enum('task','participant','session','period','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"computeBy": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
-      <c r="B9" t="s">
-        <v>1241</v>
+      <c r="B9" s="17" t="s">
+        <v>1480</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>1406</v>
@@ -7096,10 +7419,14 @@
       </c>
       <c r="H9" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  displayBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1">
+        <v xml:space="preserve">  displayBy enum('task','participant','session','period','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"displayBy": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7117,8 +7444,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="17" customFormat="1">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7135,13 +7466,17 @@
         <v>1399</v>
       </c>
       <c r="H11" s="17" t="str">
-        <f t="shared" ref="H11:H12" si="1">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
+        <f t="shared" ref="H11:H12" si="2">CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="17" customFormat="1">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>1455</v>
@@ -7153,11 +7488,15 @@
         <v>1454</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H12" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -7172,23 +7511,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="78.5" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7210,8 +7552,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1371</v>
       </c>
@@ -7234,8 +7579,12 @@
         <f t="shared" ref="H2:H5" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyVariableId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7255,8 +7604,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Relation back to the study, defined in "study_general:studyId". A study can have from one to many variables.',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J7" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1369</v>
       </c>
@@ -7276,8 +7629,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variableName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this Independent Variable (e.g., "menu style" or "color scheme")',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variableName": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7295,8 +7652,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7313,13 +7674,17 @@
         <v>1399</v>
       </c>
       <c r="H6" s="17" t="str">
-        <f t="shared" ref="H6:H7" si="1">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
+        <f t="shared" ref="H6:H7" si="2">CONCATENATE("  ",A6," ", B6, " ", C6," ", D6," ",E6," COMMENT '",SUBSTITUTE(F6,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>1455</v>
@@ -7331,16 +7696,15 @@
         <v>1454</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H7" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="17" t="s">
-        <v>1478</v>
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -7355,23 +7719,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7393,8 +7757,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1359</v>
       </c>
@@ -7417,8 +7784,12 @@
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyStepDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyStepDetailId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1358</v>
       </c>
@@ -7438,8 +7809,12 @@
         <f t="shared" ref="H3:H6" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL  COMMENT 'ID of study step to which this record relates',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="13" customFormat="1">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J6" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"studyStepId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1360</v>
       </c>
@@ -7457,8 +7832,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"detailType": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1361</v>
       </c>
@@ -7478,10 +7857,14 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  detailId bigint(20) unsigned NOT NULL  COMMENT 'ID in corresponding table',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"detailId": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>1455</v>
@@ -7493,11 +7876,15 @@
         <v>1454</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H6" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  deleted tinyint(1)  NOT NULL DEFAULT '0' COMMENT 'When true, the record is no longer available to users or computations',</v>
+      </c>
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"deleted": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -7512,18 +7899,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.1640625" style="17"/>
+    <col min="5" max="5" width="15.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -7545,8 +7932,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1296</v>
       </c>
@@ -7565,11 +7955,16 @@
       <c r="F2" t="s">
         <v>1264</v>
       </c>
-      <c r="H2" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="17" t="str">
+        <f t="shared" ref="H2:H17" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
+        <v xml:space="preserve">  accountId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'This is the account ID used when testing ownership',</v>
+      </c>
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"accountId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7587,11 +7982,15 @@
         <v>1443</v>
       </c>
       <c r="H3" s="17" t="str">
-        <f t="shared" ref="H3:H17" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  username varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Account user name',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J18" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"username": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1263</v>
       </c>
@@ -7612,8 +8011,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ownerId bigint(20) unsigned NOT NULL  COMMENT 'The account that created this account',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"ownerId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1278</v>
       </c>
@@ -7633,8 +8036,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  acctPassword varchar(512) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'hashed/encrypted password value; empty = no password (default)',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"acctPassword": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7655,8 +8062,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  firstName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'First name',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"firstName": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -7676,8 +8087,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  lastName varchar(64) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Last name',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"lastName": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -7697,8 +8112,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  greetingName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Name used on personalized pages, defaults to first name if not provided.',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"greetingName": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -7718,8 +8137,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  orgName varchar(255) COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Organizational name',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"orgName": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7740,8 +8163,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  email varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Email of account contact',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"email": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1265</v>
       </c>
@@ -7759,8 +8186,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  accountType enum('admin','researcher','reviewer')   DEFAULT 'researcher' COMMENT 'for now this is how all accounts are defined',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"accountType": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7781,8 +8212,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  wluxUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The root of pages and files hosted on the WLUX server',</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"wluxUrlRoot": " ",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7803,8 +8238,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  clientUrlRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The default root of the server being tested (this will serve as the default value to use when defining a study)',</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"clientUrlRoot": " ",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1294</v>
       </c>
@@ -7825,8 +8264,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  userFileRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"userFileRoot": " ",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1295</v>
       </c>
@@ -7847,8 +8290,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  userWebRoot varchar(255) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Internal file path used on server',</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"userWebRoot": " ",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7871,8 +8318,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTimeZone enum('UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak','UTC−11 Pacific/Midway') COLLATE utf8_unicode_ci NOT NULL DEFAULT 'UTC−08 America/Los_Angeles' COMMENT 'Default time zone to use for this account',</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1">
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTimeZone": " ",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>1270</v>
       </c>
@@ -7890,8 +8341,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="17" customFormat="1">
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1271</v>
       </c>
@@ -7908,8 +8363,12 @@
         <v>1399</v>
       </c>
       <c r="H18" s="17" t="str">
-        <f t="shared" ref="H18" si="1">CONCATENATE("  ",A18," ", B18, " ", C18," ", D18," ",E18," COMMENT '",SUBSTITUTE(F18,"'",""),"',")</f>
+        <f t="shared" ref="H18" si="2">CONCATENATE("  ",A18," ", B18, " ", C18," ", D18," ",E18," COMMENT '",SUBSTITUTE(F18,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -7931,18 +8390,18 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1183</v>
       </c>
@@ -7962,7 +8421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1184</v>
       </c>
@@ -7988,7 +8447,7 @@
         <v>'UTC+00 Europe/London',</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1185</v>
       </c>
@@ -8014,7 +8473,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin',</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1186</v>
       </c>
@@ -8040,7 +8499,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev',</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1187</v>
       </c>
@@ -8066,7 +8525,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh',</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1188</v>
       </c>
@@ -8092,7 +8551,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran',</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1189</v>
       </c>
@@ -8118,7 +8577,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow',</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1190</v>
       </c>
@@ -8144,7 +8603,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul',</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1191</v>
       </c>
@@ -8170,7 +8629,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives',</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1192</v>
       </c>
@@ -8196,7 +8655,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta',</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1193</v>
       </c>
@@ -8222,7 +8681,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu',</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1194</v>
       </c>
@@ -8248,7 +8707,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos',</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1195</v>
       </c>
@@ -8274,7 +8733,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon',</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1196</v>
       </c>
@@ -8300,7 +8759,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok',</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1197</v>
       </c>
@@ -8326,7 +8785,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei',</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1198</v>
       </c>
@@ -8355,7 +8814,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla',</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1199</v>
       </c>
@@ -8381,7 +8840,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo',</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1200</v>
       </c>
@@ -8410,7 +8869,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide',</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1201</v>
       </c>
@@ -8439,7 +8898,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne',</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1202</v>
       </c>
@@ -8468,7 +8927,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe',</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1203</v>
       </c>
@@ -8497,7 +8956,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei',</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8523,7 +8982,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk',</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1205</v>
       </c>
@@ -8552,7 +9011,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka',</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1206</v>
       </c>
@@ -8581,7 +9040,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham',</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1207</v>
       </c>
@@ -8607,7 +9066,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu',</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1208</v>
       </c>
@@ -8636,7 +9095,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati',</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1209</v>
       </c>
@@ -8665,7 +9124,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund',</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1210</v>
       </c>
@@ -8694,7 +9153,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands',</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1211</v>
       </c>
@@ -8723,7 +9182,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza',</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1212</v>
       </c>
@@ -8752,7 +9211,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland',</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1213</v>
       </c>
@@ -8781,7 +9240,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax',</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1214</v>
       </c>
@@ -8807,7 +9266,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas',</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1215</v>
       </c>
@@ -8836,7 +9295,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York',</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1216</v>
       </c>
@@ -8865,7 +9324,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago',</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1217</v>
       </c>
@@ -8894,7 +9353,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver',</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1218</v>
       </c>
@@ -8923,7 +9382,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles',</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1219</v>
       </c>
@@ -8952,7 +9411,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage',</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1220</v>
       </c>
@@ -8981,7 +9440,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas',</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1221</v>
       </c>
@@ -9010,7 +9469,7 @@
         <v>'UTC+00 Europe/London','UTC+01 Europe/Berlin','UTC+02 Europe/Kiev','UTC+03 Asia/Riyadh','UTC+03:30 Asia/Tehran','UTC+04 Europe/Moscow','UTC+04:30 Asia/Kabul','UTC+05 Indian/Maldives','UTC+05:30 Asia/Calcutta','UTC+05:45 Asia/Kathmandu','UTC+06 Indian/Chagos','UTC+06:30 Asia/Rangoon','UTC+07 Asia/Bangkok','UTC+08 Asia/Brunei','UTC+08:45 Australia/Eucla','UTC+09 Asia/Tokyo','UTC+09:30 Australia/Adelaide','UTC+10 Australia/Melbourne','UTC+10:30 Australia/Lord_Howe','UTC+11 Pacific/Pohnpei','UTC+11:30 Pacific/Norfolk','UTC+12 Asia/Kamchatka','UTC+12:45 Pacific/Chatham','UTC+13 Pacific/Tongatapu','UTC+14 Pacific/Kiritimati','UTC−01 America/Scoresbysund','UTC−02 America/Atlantic islands','UTC−03 America/Argentina/Mendoza','UTC−03:30 Canada/Newfoundland','UTC−04 America/Halifax','UTC−04:30 America/Caracas','UTC−05 America/New_York','UTC−06 America/Chicago','UTC−07 America/Denver','UTC−08 America/Los_Angeles','UTC−09 America/Anchorage','UTC−09:30 Pacific/Marquesas','UTC−10 America/Adak',</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1222</v>
       </c>
@@ -9057,18 +9516,18 @@
       <selection activeCell="B211" sqref="B211:C211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1181</v>
       </c>
@@ -9091,7 +9550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE("UTC",LEFT(E2,3),IF(VALUE(RIGHT(E2,2))&gt;0,RIGHT(E2,3),""))</f>
         <v>UTC+00</v>
@@ -9109,7 +9568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9127,7 +9586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9145,7 +9604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9163,7 +9622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9181,7 +9640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9199,7 +9658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9217,7 +9676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9235,7 +9694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9253,7 +9712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9271,7 +9730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9289,7 +9748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9307,7 +9766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9325,7 +9784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9343,7 +9802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9361,7 +9820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9379,7 +9838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9400,7 +9859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9421,7 +9880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9439,7 +9898,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9457,7 +9916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9478,7 +9937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9496,7 +9955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9514,7 +9973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9532,7 +9991,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9550,7 +10009,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9568,7 +10027,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9586,7 +10045,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9604,7 +10063,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9622,7 +10081,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9640,7 +10099,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9658,7 +10117,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9676,7 +10135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9697,7 +10156,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9718,7 +10177,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9739,7 +10198,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9760,7 +10219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9778,7 +10237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9796,7 +10255,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9814,7 +10273,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9832,7 +10291,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9850,7 +10309,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9868,7 +10327,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9886,7 +10345,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9904,7 +10363,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9922,7 +10381,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9940,7 +10399,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9958,7 +10417,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9976,7 +10435,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -9991,7 +10450,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -10006,7 +10465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>UTC+00</v>
@@ -10024,7 +10483,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10042,7 +10501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10060,7 +10519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10078,7 +10537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10099,7 +10558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10117,7 +10576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10138,7 +10597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10156,7 +10615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10174,7 +10633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10192,7 +10651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10210,7 +10669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10228,7 +10687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10246,7 +10705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>UTC+01</v>
@@ -10264,7 +10723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE("UTC",LEFT(E66,3),IF(VALUE(RIGHT(E66,2))&gt;0,RIGHT(E66,3),""))</f>
         <v>UTC+01</v>
@@ -10282,7 +10741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10300,7 +10759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10321,7 +10780,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10339,7 +10798,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10354,7 +10813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10372,7 +10831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10390,7 +10849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10408,7 +10867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10429,7 +10888,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10450,7 +10909,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10468,7 +10927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10486,7 +10945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10504,7 +10963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10522,7 +10981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10543,7 +11002,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10561,7 +11020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10582,7 +11041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10600,7 +11059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10618,7 +11077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10636,7 +11095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10654,7 +11113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10675,7 +11134,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10693,7 +11152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10711,7 +11170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10732,7 +11191,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10753,7 +11212,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10774,7 +11233,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10792,7 +11251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10810,7 +11269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10828,7 +11287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10849,7 +11308,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10867,7 +11326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10885,7 +11344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10906,7 +11365,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10924,7 +11383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10939,7 +11398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>UTC+01</v>
@@ -10957,7 +11416,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10975,7 +11434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -10993,7 +11452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11014,7 +11473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11032,7 +11491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11050,7 +11509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11068,7 +11527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11086,7 +11545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11107,7 +11566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11125,7 +11584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11143,7 +11602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11161,7 +11620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11179,7 +11638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11197,7 +11656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11215,7 +11674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11233,7 +11692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11251,7 +11710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11272,7 +11731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11293,7 +11752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11311,7 +11770,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11329,7 +11788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11347,7 +11806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11365,7 +11824,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11380,7 +11839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11398,7 +11857,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11416,7 +11875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11434,7 +11893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>UTC+02</v>
@@ -11452,7 +11911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE("UTC",LEFT(E130,3),IF(VALUE(RIGHT(E130,2))&gt;0,RIGHT(E130,3),""))</f>
         <v>UTC+02</v>
@@ -11470,7 +11929,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11488,7 +11947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11509,7 +11968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11530,7 +11989,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11548,7 +12007,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11566,7 +12025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11587,7 +12046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11605,7 +12064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11623,7 +12082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11641,7 +12100,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11662,7 +12121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11680,7 +12139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11701,7 +12160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11719,7 +12178,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11737,7 +12196,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>UTC+02</v>
@@ -11755,7 +12214,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11773,7 +12232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11791,7 +12250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11809,7 +12268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11827,7 +12286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11845,7 +12304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11863,7 +12322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11881,7 +12340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11899,7 +12358,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11917,7 +12376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11935,7 +12394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11956,7 +12415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11974,7 +12433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -11992,7 +12451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12010,7 +12469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12028,7 +12487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12046,7 +12505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12064,7 +12523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12085,7 +12544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12103,7 +12562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12121,7 +12580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12139,7 +12598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03</v>
@@ -12157,7 +12616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -12175,7 +12634,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>UTC+03:30</v>
@@ -12193,7 +12652,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12211,7 +12670,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12229,7 +12688,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12247,7 +12706,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12265,7 +12724,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12283,7 +12742,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12304,7 +12763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12325,7 +12784,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12346,7 +12805,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12364,7 +12823,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12382,7 +12841,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12400,7 +12859,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04</v>
@@ -12418,7 +12877,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>UTC+04:30</v>
@@ -12436,7 +12895,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12457,7 +12916,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12478,7 +12937,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12499,7 +12958,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12520,7 +12979,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12538,7 +12997,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12556,7 +13015,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12574,7 +13033,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12592,7 +13051,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12613,7 +13072,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12634,7 +13093,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>UTC+05</v>
@@ -12655,7 +13114,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">CONCATENATE("UTC",LEFT(E194,3),IF(VALUE(RIGHT(E194,2))&gt;0,RIGHT(E194,3),""))</f>
         <v>UTC+05</v>
@@ -12673,7 +13132,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05</v>
@@ -12691,7 +13150,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12709,7 +13168,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12727,7 +13186,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:30</v>
@@ -12748,7 +13207,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -12766,7 +13225,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>UTC+05:45</v>
@@ -12784,7 +13243,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12805,7 +13264,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12826,7 +13285,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12844,7 +13303,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12862,7 +13321,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12880,7 +13339,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12901,7 +13360,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12919,7 +13378,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12937,7 +13396,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12958,7 +13417,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06</v>
@@ -12976,7 +13435,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -12994,7 +13453,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>UTC+06:30</v>
@@ -13012,7 +13471,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13030,7 +13489,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13048,7 +13507,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13069,7 +13528,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13090,7 +13549,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13111,7 +13570,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13132,7 +13591,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13153,7 +13612,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13171,7 +13630,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13192,7 +13651,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13210,7 +13669,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13228,7 +13687,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>UTC+07</v>
@@ -13246,7 +13705,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13264,7 +13723,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13285,7 +13744,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13309,7 +13768,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13327,7 +13786,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13351,7 +13810,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13369,7 +13828,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13393,7 +13852,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13414,7 +13873,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13435,7 +13894,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13456,7 +13915,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13474,7 +13933,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13492,7 +13951,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13513,7 +13972,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13531,7 +13990,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13555,7 +14014,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13573,7 +14032,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13591,7 +14050,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13609,7 +14068,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13630,7 +14089,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13648,7 +14107,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13672,7 +14131,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13693,7 +14152,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13711,7 +14170,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13729,7 +14188,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13747,7 +14206,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13765,7 +14224,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08</v>
@@ -13783,7 +14242,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>UTC+08:45</v>
@@ -13804,7 +14263,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13822,7 +14281,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13843,7 +14302,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13864,7 +14323,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13882,7 +14341,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>UTC+09</v>
@@ -13900,7 +14359,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A321" si="4">CONCATENATE("UTC",LEFT(E258,3),IF(VALUE(RIGHT(E258,2))&gt;0,RIGHT(E258,3),""))</f>
         <v>UTC+09</v>
@@ -13918,7 +14377,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13936,7 +14395,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13954,7 +14413,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13972,7 +14431,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09</v>
@@ -13990,7 +14449,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14011,7 +14470,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14032,7 +14491,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14053,7 +14512,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14071,7 +14530,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14089,7 +14548,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>UTC+09:30</v>
@@ -14107,7 +14566,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14128,7 +14587,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14149,7 +14608,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14167,7 +14626,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14188,7 +14647,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14206,7 +14665,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14227,7 +14686,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14248,7 +14707,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14269,7 +14728,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14290,7 +14749,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14308,7 +14767,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14326,7 +14785,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14347,7 +14806,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14365,7 +14824,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14383,7 +14842,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14404,7 +14863,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14422,7 +14881,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14440,7 +14899,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14458,7 +14917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14476,7 +14935,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10</v>
@@ -14494,7 +14953,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -14512,7 +14971,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>UTC+10:30</v>
@@ -14533,7 +14992,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14554,7 +15013,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14575,7 +15034,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14596,7 +15055,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14617,7 +15076,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14635,7 +15094,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14653,7 +15112,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14674,7 +15133,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14692,7 +15151,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14713,7 +15172,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11</v>
@@ -14731,7 +15190,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>UTC+11:30</v>
@@ -14749,7 +15208,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14770,7 +15229,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14794,7 +15253,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14815,7 +15274,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14836,7 +15295,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14857,7 +15316,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14875,7 +15334,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14893,7 +15352,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14914,7 +15373,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14932,7 +15391,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14950,7 +15409,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14971,7 +15430,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -14992,7 +15451,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -15010,7 +15469,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -15031,7 +15490,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -15052,7 +15511,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12</v>
@@ -15070,7 +15529,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -15088,7 +15547,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v>UTC+12:45</v>
@@ -15109,7 +15568,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -15127,7 +15586,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v>UTC+13</v>
@@ -15148,7 +15607,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" ref="A322:A385" si="5">CONCATENATE("UTC",LEFT(E322,3),IF(VALUE(RIGHT(E322,2))&gt;0,RIGHT(E322,3),""))</f>
         <v>UTC+13</v>
@@ -15166,7 +15625,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f t="shared" si="5"/>
         <v>UTC+13</v>
@@ -15184,7 +15643,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v>UTC+14</v>
@@ -15205,7 +15664,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15226,7 +15685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15247,7 +15706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v>UTC−01</v>
@@ -15265,7 +15724,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15286,7 +15745,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15304,7 +15763,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v>UTC−02</v>
@@ -15322,7 +15781,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15343,7 +15802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15364,7 +15823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15385,7 +15844,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15403,7 +15862,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15424,7 +15883,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15445,7 +15904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15466,7 +15925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15487,7 +15946,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15508,7 +15967,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15529,7 +15988,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15550,7 +16009,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15571,7 +16030,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15592,7 +16051,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15613,7 +16072,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15634,7 +16093,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15655,7 +16114,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15673,7 +16132,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15691,7 +16150,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15709,7 +16168,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15727,7 +16186,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15748,7 +16207,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15769,7 +16228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15787,7 +16246,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15808,7 +16267,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15826,7 +16285,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15844,7 +16303,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15862,7 +16321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15880,7 +16339,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15901,7 +16360,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15919,7 +16378,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15940,7 +16399,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15961,7 +16420,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -15982,7 +16441,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -16000,7 +16459,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03</v>
@@ -16018,7 +16477,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -16039,7 +16498,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
         <v>UTC−03:30</v>
@@ -16057,7 +16516,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16075,7 +16534,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16093,7 +16552,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16111,7 +16570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16129,7 +16588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16147,7 +16606,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16168,7 +16627,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16189,7 +16648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16210,7 +16669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16231,7 +16690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16249,7 +16708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16267,7 +16726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16288,7 +16747,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16309,7 +16768,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16330,7 +16789,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16348,7 +16807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16366,7 +16825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16384,7 +16843,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
         <v>UTC−04</v>
@@ -16405,7 +16864,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f t="shared" ref="A386:A449" si="6">CONCATENATE("UTC",LEFT(E386,3),IF(VALUE(RIGHT(E386,2))&gt;0,RIGHT(E386,3),""))</f>
         <v>UTC−04</v>
@@ -16426,7 +16885,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16444,7 +16903,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16465,7 +16924,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16486,7 +16945,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16507,7 +16966,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16525,7 +16984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16546,7 +17005,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16564,7 +17023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16582,7 +17041,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16603,7 +17062,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16621,7 +17080,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16642,7 +17101,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16660,7 +17119,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16681,7 +17140,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16699,7 +17158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16717,7 +17176,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16735,7 +17194,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16753,7 +17212,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16774,7 +17233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16792,7 +17251,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16810,7 +17269,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16831,7 +17290,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16849,7 +17308,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16867,7 +17326,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16885,7 +17344,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04</v>
@@ -16903,7 +17362,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
         <v>UTC−04:30</v>
@@ -16921,7 +17380,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16942,7 +17401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16960,7 +17419,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16978,7 +17437,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -16996,7 +17455,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17017,7 +17476,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17035,7 +17494,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17053,7 +17512,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17074,7 +17533,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17092,7 +17551,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17113,7 +17572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17134,7 +17593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17155,7 +17614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17176,7 +17635,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17197,7 +17656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17218,7 +17677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17236,7 +17695,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17257,7 +17716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17275,7 +17734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17296,7 +17755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17317,7 +17776,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17335,7 +17794,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17353,7 +17812,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17374,7 +17833,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17392,7 +17851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17413,7 +17872,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17434,7 +17893,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17452,7 +17911,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17473,7 +17932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17491,7 +17950,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17506,7 +17965,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17524,7 +17983,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17545,7 +18004,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17566,7 +18025,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17581,7 +18040,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17599,7 +18058,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17617,7 +18076,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
         <v>UTC−05</v>
@@ -17632,7 +18091,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
         <f t="shared" ref="A450:A513" si="7">CONCATENATE("UTC",LEFT(E450,3),IF(VALUE(RIGHT(E450,2))&gt;0,RIGHT(E450,3),""))</f>
         <v>UTC−05</v>
@@ -17647,7 +18106,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17665,7 +18124,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17683,7 +18142,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17701,7 +18160,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
         <v>UTC−05</v>
@@ -17719,7 +18178,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17740,7 +18199,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17758,7 +18217,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17779,7 +18238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17800,7 +18259,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17818,7 +18277,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17836,7 +18295,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17854,7 +18313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17875,7 +18334,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17896,7 +18355,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17914,7 +18373,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17932,7 +18391,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17953,7 +18412,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17974,7 +18433,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -17995,7 +18454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18016,7 +18475,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18037,7 +18496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18058,7 +18517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18079,7 +18538,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18100,7 +18559,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18121,7 +18580,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18142,7 +18601,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18163,7 +18622,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18184,7 +18643,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18205,7 +18664,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18223,7 +18682,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18244,7 +18703,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18262,7 +18721,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18280,7 +18739,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18298,7 +18757,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18316,7 +18775,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18331,7 +18790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18349,7 +18808,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18370,7 +18829,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18391,7 +18850,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18409,7 +18868,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="str">
         <f t="shared" si="7"/>
         <v>UTC−06</v>
@@ -18427,7 +18886,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18448,7 +18907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18469,7 +18928,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18490,7 +18949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18511,7 +18970,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18532,7 +18991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18553,7 +19012,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18574,7 +19033,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18595,7 +19054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18616,7 +19075,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18637,7 +19096,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18658,7 +19117,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18679,7 +19138,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18703,7 +19162,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18724,7 +19183,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18742,7 +19201,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18760,7 +19219,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18775,7 +19234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18790,7 +19249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18808,7 +19267,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18826,7 +19285,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f t="shared" si="7"/>
         <v>UTC−07</v>
@@ -18844,7 +19303,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -18865,7 +19324,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f t="shared" si="7"/>
         <v>UTC−08</v>
@@ -18883,7 +19342,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f t="shared" ref="A514:A549" si="8">CONCATENATE("UTC",LEFT(E514,3),IF(VALUE(RIGHT(E514,2))&gt;0,RIGHT(E514,3),""))</f>
         <v>UTC−08</v>
@@ -18904,7 +19363,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18925,7 +19384,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18946,7 +19405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18967,7 +19426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -18988,7 +19447,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19009,7 +19468,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19027,7 +19486,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19045,7 +19504,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19063,7 +19522,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19081,7 +19540,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19096,7 +19555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19114,7 +19573,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f t="shared" si="8"/>
         <v>UTC−08</v>
@@ -19132,7 +19591,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19150,7 +19609,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19171,7 +19630,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19192,7 +19651,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19213,7 +19672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19234,7 +19693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19255,7 +19714,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19276,7 +19735,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09</v>
@@ -19294,7 +19753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
         <v>UTC−09:30</v>
@@ -19315,7 +19774,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19336,7 +19795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19354,7 +19813,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19369,7 +19828,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19390,7 +19849,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19411,7 +19870,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19429,7 +19888,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19450,7 +19909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19468,7 +19927,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
         <v>UTC−10</v>
@@ -19486,7 +19945,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19507,7 +19966,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19525,7 +19984,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19543,7 +20002,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19561,7 +20020,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
         <v>UTC−11</v>
@@ -19599,17 +20058,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -19632,7 +20091,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1303</v>
       </c>
@@ -19656,7 +20115,7 @@
         <v xml:space="preserve">  debugId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1260</v>
       </c>
@@ -19678,7 +20137,7 @@
         <v xml:space="preserve">  moduleName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Module to which this setting applies.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1276</v>
       </c>
@@ -19700,7 +20159,7 @@
         <v xml:space="preserve">  methodName varchar(64)  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'Method to which this setting applies.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1261</v>
       </c>
@@ -19721,7 +20180,7 @@
         <v xml:space="preserve">  returnDbgData tinyint(1)  NOT NULL  DEFAULT '0' COMMENT 'When TRUE, the specified module and method should return a debug data structure in the repsonse.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1262</v>
       </c>
@@ -19761,20 +20220,20 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="13"/>
-    <col min="8" max="8" width="109.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="13"/>
+    <col min="8" max="8" width="109.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -19797,7 +20256,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1402</v>
       </c>
@@ -19821,7 +20280,7 @@
         <v xml:space="preserve">  studyConfigDetailId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1334</v>
       </c>
@@ -19842,7 +20301,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL  COMMENT 'ID of study config record to which this record relates',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1360</v>
       </c>
@@ -19860,7 +20319,7 @@
         <v xml:space="preserve">  detailType enum('measure','variable','variation')  NOT NULL  COMMENT 'detail type (describes to what detailId refers)',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1361</v>
       </c>
@@ -19881,15 +20340,15 @@
         <v xml:space="preserve">  detailId bigint(20) unsigned NOT NULL  COMMENT 'ID in corresponding table',</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1"/>
-    <row r="11" spans="1:8" s="2" customFormat="1"/>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="36">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1"/>
-    <row r="14" spans="1:8" s="2" customFormat="1"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19908,12 +20367,12 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -19930,7 +20389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19944,7 +20403,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19958,7 +20417,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -19975,7 +20434,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1232</v>
       </c>
@@ -19989,7 +20448,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1233</v>
       </c>
@@ -20003,7 +20462,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1235</v>
       </c>
@@ -20017,7 +20476,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1237</v>
       </c>
@@ -20034,7 +20493,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1242</v>
       </c>
@@ -20045,7 +20504,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -20056,7 +20515,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1270</v>
       </c>
@@ -20070,7 +20529,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1271</v>
       </c>
@@ -20084,15 +20543,15 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1"/>
-    <row r="16" spans="1:5" s="2" customFormat="1"/>
-    <row r="17" spans="1:1" s="21" customFormat="1" ht="36">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="21" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1"/>
-    <row r="19" spans="1:1" s="2" customFormat="1"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -20111,18 +20570,18 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="156.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="156.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -20145,7 +20604,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1304</v>
       </c>
@@ -20169,7 +20628,7 @@
         <v xml:space="preserve">  gratuityLogId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20191,7 +20650,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL   COMMENT 'ID of study to which this gratuity entry belongs.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -20213,7 +20672,7 @@
         <v xml:space="preserve">  periodName varchar(64)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Name of study period in the study identified by studyId to which this entry belongs.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -20234,7 +20693,7 @@
         <v xml:space="preserve">  email varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Email address entered by the participant.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -20255,7 +20714,7 @@
         <v xml:space="preserve">  comments varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'Comments entered by the participant.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1270</v>
       </c>
@@ -20274,7 +20733,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1">
+    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1271</v>
       </c>
@@ -20314,18 +20773,18 @@
       <selection activeCell="H14" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" customWidth="1"/>
-    <col min="8" max="8" width="192.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" customWidth="1"/>
+    <col min="8" max="8" width="192.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -20348,7 +20807,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1297</v>
       </c>
@@ -20372,7 +20831,7 @@
         <v xml:space="preserve">  logTransitionId bigint(20) unsigned NOT NULL  AUTO_INCREMENT COMMENT 'Unique record ID.',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -20394,7 +20853,7 @@
         <v xml:space="preserve">  serverTimestamp timestamp  NOT NULL  DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'Time read from server that the activity took place. Stored in server time zone.',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -20415,7 +20874,7 @@
         <v xml:space="preserve">  clientTimestamp bigint(20) unsigned  DEFAULT NULL COMMENT 'The timestamp information provided by the client site. Treated as a number. If NULL or 0, the serverTimestamp field is used for timing activities.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -20437,7 +20896,7 @@
         <v xml:space="preserve">  recordType enum('open','transition')  COLLATE utf8_unicode_ci  NOT NULL   COMMENT 'The type of log record. Possible values are: "open" - records page loads; "transition" - records navigation activity.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20459,7 +20918,7 @@
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL   COMMENT 'The participant session in which the activity occured.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1334</v>
       </c>
@@ -20481,7 +20940,7 @@
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL   COMMENT 'The study config record in use when the activity ocurred.',</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1382</v>
       </c>
@@ -20503,7 +20962,7 @@
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL   COMMENT 'The index of the protocol step in which the activity ocurred.',</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1280</v>
       </c>
@@ -20525,7 +20984,7 @@
         <v xml:space="preserve">  taskVariationId int(10) unsigned NOT NULL   COMMENT 'RESERVED',</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -20546,7 +21005,7 @@
         <v xml:space="preserve">  fromUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of page with link that was opened or clicked',</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -20567,7 +21026,7 @@
         <v xml:space="preserve">  toUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'URL of link destination',</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -20588,7 +21047,7 @@
         <v xml:space="preserve">  linkClass varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'class attribute of link',</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -20609,7 +21068,7 @@
         <v xml:space="preserve">  linkId varchar(255)  COLLATE utf8_unicode_ci   DEFAULT NULL COMMENT 'ID attribute of link',</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -20645,22 +21104,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="67.5" customWidth="1"/>
-    <col min="8" max="8" width="155.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" customWidth="1"/>
+    <col min="8" max="8" width="155.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -20683,7 +21142,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -20700,14 +21159,14 @@
         <v>1283</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H2" s="17" t="str">
         <f t="shared" ref="H2:H6" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record and study session ID',</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20729,7 +21188,7 @@
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'ID of study that defined this participant session',</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -20748,7 +21207,7 @@
         <v xml:space="preserve">  startTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation began.',</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -20767,7 +21226,7 @@
         <v xml:space="preserve">  endTime datetime  NOT NULL  COMMENT 'The time, in server local time, that this task/variation ended.',</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1">
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1270</v>
       </c>
@@ -20786,7 +21245,7 @@
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1271</v>
       </c>
@@ -20820,39 +21279,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="67" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -20874,8 +21333,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1334</v>
       </c>
@@ -20898,8 +21360,12 @@
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  sessionConfigId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"sessionConfigId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -20922,8 +21388,12 @@
         <f t="shared" ref="H3:H26" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J28" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"sessionId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -20946,8 +21416,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of study that defined this session',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1358</v>
       </c>
@@ -20964,14 +21438,18 @@
         <v>1407</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyStepId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'ID of the study step configuration that this record references',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyStepId": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>1382</v>
       </c>
@@ -20994,8 +21472,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  stepIndex int(10) unsigned NOT NULL DEFAULT '0'  COMMENT 'Step sequence',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"stepIndex": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1373</v>
       </c>
@@ -21016,8 +21498,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of pre-task page if used. null means dont show a pre-task page for this step.',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1374</v>
       </c>
@@ -21038,8 +21524,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the pre-task page',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageHtml": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>1375</v>
       </c>
@@ -21060,10 +21550,14 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  preTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the pre-task page',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskPageNextUrl": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>27</v>
@@ -21072,16 +21566,20 @@
         <v>1408</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H10" s="17" t="str">
         <f>CONCATENATE("  ",A10," ", B10, " ", C10," ", D10," ",E10," COMMENT '",SUBSTITUTE(F10,"'",""),"',")</f>
         <v xml:space="preserve">  preTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask began',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="17" customFormat="1">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskStartTime": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>27</v>
@@ -21090,14 +21588,18 @@
         <v>1408</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H11" s="17" t="str">
         <f>CONCATENATE("  ",A11," ", B11, " ", C11," ", D11," ",E11," COMMENT '",SUBSTITUTE(F11,"'",""),"',")</f>
         <v xml:space="preserve">  preTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the preTask ended',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="13" customFormat="1">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"preTaskEndTime": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>1376</v>
       </c>
@@ -21118,8 +21620,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL to the first page of the web page for the study task in this step. If null, this step does not have a study task.',</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1">
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>1248</v>
       </c>
@@ -21137,8 +21643,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  defaultTaskBarRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Root path of the CSS file for the task bar to show in the study page',</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1">
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"defaultTaskBarRoot": " ",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>1250</v>
       </c>
@@ -21159,8 +21669,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  taskBarCssPath varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Path to the CSS file for the task bar. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1">
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"taskBarCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>1378</v>
       </c>
@@ -21181,8 +21695,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  taskBarHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Text to show in the task bar on the client web siteNOTE: if submitted value does not start with an "&lt;" character, wrap the submitted value in "&lt;p&gt;" tags.',</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1">
+      <c r="J15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"taskBarHtml": " ",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>1251</v>
       </c>
@@ -21203,8 +21721,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  exitButtonText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Exit task' COMMENT 'Text to display in the exit task button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="13" customFormat="1">
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"exitButtonText": " ",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -21225,8 +21747,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  tabShowText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Show' COMMENT 'Text to display in the task-bar SHOW button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="13" customFormat="1">
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"tabShowText": " ",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
@@ -21247,8 +21773,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  tabHideText varchar(255)  COLLATE utf8_unicode_ci   DEFAULT 'Hide' COMMENT 'Text to display in the task-bar HIDE button. If empty, use default for study.',</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="13" customFormat="1">
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"tabHideText": " ",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>1377</v>
       </c>
@@ -21269,10 +21799,14 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyTaskReturnUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the page to navigate to when the participent ends the task on the client site.',</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1">
+      <c r="J19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskReturnUrl": " ",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>27</v>
@@ -21281,16 +21815,20 @@
         <v>1408</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H20" s="17" t="str">
         <f>CONCATENATE("  ",A20," ", B20, " ", C20," ", D20," ",E20," COMMENT '",SUBSTITUTE(F20,"'",""),"',")</f>
         <v xml:space="preserve">  studyTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task began.',</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1">
+      <c r="J20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskStartTime": " ",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>27</v>
@@ -21299,14 +21837,18 @@
         <v>1408</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H21" s="17" t="str">
         <f>CONCATENATE("  ",A21," ", B21, " ", C21," ", D21," ",E21," COMMENT '",SUBSTITUTE(F21,"'",""),"',")</f>
         <v xml:space="preserve">  studyTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the task ended.',</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1">
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyTaskEndTime": " ",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>1379</v>
       </c>
@@ -21327,8 +21869,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'URL of the post-task page, if used.  null means dont show a pre-task page for this step.',</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="13" customFormat="1">
+      <c r="J22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageUrl": " ",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>1380</v>
       </c>
@@ -21349,8 +21895,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageHtml longtext  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'HTML to show in the post-task page',</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="13" customFormat="1">
+      <c r="J23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageHtml": " ",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>1385</v>
       </c>
@@ -21371,10 +21921,14 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskPageNextUrl varchar(1024)  COLLATE utf8_unicode_ci   DEFAULT NULL  COMMENT 'Destination of the next button on the post-task page',</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="17" customFormat="1">
+      <c r="J24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskPageNextUrl": " ",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>27</v>
@@ -21383,16 +21937,20 @@
         <v>1408</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H25" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskStartTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask began.',</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="J25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskStartTime": " ",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>27</v>
@@ -21401,14 +21959,18 @@
         <v>1408</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H26" s="22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  postTaskEndTime datetime   DEFAULT NULL  COMMENT 'The time, in server local time, that the postTask ended',</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"postTaskEndTime": " ",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1270</v>
       </c>
@@ -21426,8 +21988,12 @@
         <f>CONCATENATE("  ",A27," ", B27, " ", C27," ", D27," ",E27," COMMENT '",SUBSTITUTE(F27,"'",""),"',")</f>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1271</v>
       </c>
@@ -21447,36 +22013,40 @@
         <f>CONCATENATE("  ",A28," ", B28, " ", C28," ", D28," ",E28," COMMENT '",SUBSTITUTE(F28,"'",""),"',")</f>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="14"/>
     </row>
@@ -21493,24 +22063,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="107.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -21532,10 +22105,13 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>1</v>
@@ -21556,8 +22132,12 @@
         <f t="shared" ref="H2:H11" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  sessionVariationId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Unique record ID of this variation',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"sessionVariationId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -21580,8 +22160,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J11" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"sessionId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -21601,8 +22185,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1371</v>
       </c>
@@ -21623,8 +22211,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL  COMMENT 'ID of the study variable to which this variation applies',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyVariableId": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1224</v>
       </c>
@@ -21645,8 +22237,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Human-readable name of this variation',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationName": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1372</v>
       </c>
@@ -21667,8 +22263,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationDesc longtext COLLATE utf8_unicode_ci  DEFAULT NULL COMMENT 'Free-form description of this variation',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationDesc": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1228</v>
       </c>
@@ -21686,8 +22286,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationRoot enum('wlux','client')   DEFAULT 'wlux' COMMENT 'Just these for now, we can support "other" in the future)',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationRoot": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1229</v>
       </c>
@@ -21708,8 +22312,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variationCssPath varchar(1024) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The path from the selected root to the CSS file that defines the variation. This should probably be validated in the UI…',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variationCssPath": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1270</v>
       </c>
@@ -21727,8 +22335,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1271</v>
       </c>
@@ -21747,6 +22359,10 @@
       <c r="H11" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -21761,24 +22377,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="80.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="17"/>
+    <col min="6" max="6" width="80.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="17"/>
+    <col min="8" max="8" width="30.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -21800,10 +22419,13 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>1</v>
@@ -21824,8 +22446,12 @@
         <f>CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  sessionMeasureId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'primary key',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"sessionMeasureId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -21848,8 +22474,12 @@
         <f t="shared" ref="H3" si="0">CONCATENATE("  ",A3," ", B3, " ", C3," ", D3," ",E3," COMMENT '",SUBSTITUTE(F3,"'",""),"',")</f>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J12" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"sessionId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -21866,11 +22496,15 @@
         <v>1366</v>
       </c>
       <c r="H4" s="17" t="str">
-        <f t="shared" ref="H4:H12" si="1">CONCATENATE("  ",A4," ", B4, " ", C4," ", D4," ",E4," COMMENT '",SUBSTITUTE(F4,"'",""),"',")</f>
+        <f t="shared" ref="H4:H12" si="2">CONCATENATE("  ",A4," ", B4, " ", C4," ", D4," ",E4," COMMENT '",SUBSTITUTE(F4,"'",""),"',")</f>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'relational link to study id',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1434</v>
       </c>
@@ -21887,11 +22521,15 @@
         <v>1435</v>
       </c>
       <c r="H5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  measureId int(10) unsigned NOT NULL  COMMENT 'Relative index of this measure',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"measureId": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1233</v>
       </c>
@@ -21902,14 +22540,18 @@
         <v>1406</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H6" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  variableType enum('participantCount','taskTime')  NOT NULL  COMMENT 'Just to name a few... Each ENUM will have its own computation and validation algorithm',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variableType": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1235</v>
       </c>
@@ -21923,11 +22565,15 @@
         <v>1238</v>
       </c>
       <c r="H7" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  dataType enum('string','integer','float','date','time')  NOT NULL  COMMENT 'Data type returned by this variable',</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dataType": " ",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1237</v>
       </c>
@@ -21944,11 +22590,15 @@
         <v>1239</v>
       </c>
       <c r="H8" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  displayUnits varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'Units to display with this value (if any)',</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"displayUnits": " ",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1242</v>
       </c>
@@ -21962,11 +22612,15 @@
         <v>1436</v>
       </c>
       <c r="H9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  computeBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to summarize or calculate this measure',</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"computeBy": " ",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1243</v>
       </c>
@@ -21980,11 +22634,15 @@
         <v>1437</v>
       </c>
       <c r="H10" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  displayBy enum('task','participant','session','study')  NOT NULL  COMMENT 'How to display this measure in a report',</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"displayBy": " ",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1270</v>
       </c>
@@ -21999,11 +22657,15 @@
         <v>1333</v>
       </c>
       <c r="H11" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1271</v>
       </c>
@@ -22020,8 +22682,12 @@
         <v>1399</v>
       </c>
       <c r="H12" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
       </c>
     </row>
   </sheetData>
@@ -22036,24 +22702,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="17" customWidth="1"/>
-    <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="17"/>
+    <col min="6" max="6" width="41.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -22075,8 +22744,11 @@
       <c r="H1" s="18" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="18" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1371</v>
       </c>
@@ -22099,8 +22771,12 @@
         <f t="shared" ref="H2:H7" si="0">CONCATENATE("  ",A2," ", B2, " ", C2," ", D2," ",E2," COMMENT '",SUBSTITUTE(F2,"'",""),"',")</f>
         <v xml:space="preserve">  studyVariableId bigint(20) unsigned NOT NULL AUTO_INCREMENT COMMENT 'Primary key -- This table holds Independent Variables. Each record in this table has a one to many relation with study_variations which holds the LEVELS for each IV in this table',</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="17" t="str">
+        <f>CONCATENATE("""",A2,""": "" "",")</f>
+        <v>"studyVariableId": " ",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -22123,8 +22799,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  sessionId bigint(20) unsigned NOT NULL DEFAULT '0'  COMMENT 'Participant session to which this configuration belongs',</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J7" si="1">CONCATENATE("""",A3,""": "" "",")</f>
+        <v>"sessionId": " ",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -22144,8 +22824,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  studyId bigint(20) unsigned NOT NULL  COMMENT 'Relation back to the study, defined in "study_general:studyId". A study can have from one to many variables.',</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"studyId": " ",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1369</v>
       </c>
@@ -22165,8 +22849,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  variableName varchar(64) COLLATE utf8_unicode_ci NOT NULL  COMMENT 'The human-readable name of this Independent Variable (e.g., "menu style" or "color scheme")',</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"variableName": " ",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1270</v>
       </c>
@@ -22184,8 +22872,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateCreated datetime  NOT NULL  COMMENT 'The date the record was created in server local time.',</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateCreated": " ",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1271</v>
       </c>
@@ -22204,6 +22896,10 @@
       <c r="H7" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  dateModified timestamp  NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP  COMMENT 'The date the record was updated in server local time.',</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>"dateModified": " ",</v>
       </c>
     </row>
   </sheetData>
